--- a/data/excel/Teachers_DIU.xlsx
+++ b/data/excel/Teachers_DIU.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="877">
   <si>
     <t>Name</t>
   </si>
@@ -2658,6 +2658,9 @@
   </si>
   <si>
     <t>aheadged@daffodilvarsity.edu.bd</t>
+  </si>
+  <si>
+    <t>Ms. Mala Mitra</t>
   </si>
 </sst>
 </file>
@@ -2707,7 +2710,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2740,6 +2743,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
@@ -11011,13 +11017,17 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="11"/>
+      <c r="A206" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="6"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
@@ -11045,7 +11055,7 @@
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
-      <c r="G207" s="11"/>
+      <c r="G207" s="12"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
@@ -11073,7 +11083,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
-      <c r="G208" s="11"/>
+      <c r="G208" s="12"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
@@ -11101,7 +11111,7 @@
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
-      <c r="G209" s="11"/>
+      <c r="G209" s="12"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
@@ -11125,11 +11135,11 @@
     <row r="210">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
-      <c r="C210" s="12"/>
+      <c r="C210" s="13"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
-      <c r="G210" s="11"/>
+      <c r="G210" s="12"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
@@ -11157,7 +11167,7 @@
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
-      <c r="G211" s="11"/>
+      <c r="G211" s="12"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
@@ -11185,7 +11195,7 @@
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
-      <c r="G212" s="11"/>
+      <c r="G212" s="12"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
@@ -11213,7 +11223,7 @@
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
-      <c r="G213" s="11"/>
+      <c r="G213" s="12"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
@@ -11241,7 +11251,7 @@
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
-      <c r="G214" s="11"/>
+      <c r="G214" s="12"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
@@ -11269,7 +11279,7 @@
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
-      <c r="G215" s="11"/>
+      <c r="G215" s="12"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
@@ -11297,7 +11307,7 @@
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
-      <c r="G216" s="11"/>
+      <c r="G216" s="12"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
@@ -11325,7 +11335,7 @@
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
-      <c r="G217" s="11"/>
+      <c r="G217" s="12"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
@@ -11353,7 +11363,7 @@
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
-      <c r="G218" s="11"/>
+      <c r="G218" s="12"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
@@ -11381,7 +11391,7 @@
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
-      <c r="G219" s="11"/>
+      <c r="G219" s="12"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
@@ -11409,7 +11419,7 @@
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
-      <c r="G220" s="11"/>
+      <c r="G220" s="12"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
@@ -11437,7 +11447,7 @@
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
-      <c r="G221" s="11"/>
+      <c r="G221" s="12"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
@@ -11465,7 +11475,7 @@
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
-      <c r="G222" s="11"/>
+      <c r="G222" s="12"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
@@ -11493,7 +11503,7 @@
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
-      <c r="G223" s="11"/>
+      <c r="G223" s="12"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
@@ -11521,7 +11531,7 @@
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
-      <c r="G224" s="11"/>
+      <c r="G224" s="12"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
@@ -11549,7 +11559,7 @@
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
-      <c r="G225" s="11"/>
+      <c r="G225" s="12"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
@@ -11577,7 +11587,7 @@
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
-      <c r="G226" s="11"/>
+      <c r="G226" s="12"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
@@ -11605,7 +11615,7 @@
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
-      <c r="G227" s="11"/>
+      <c r="G227" s="12"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
@@ -11633,7 +11643,7 @@
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
-      <c r="G228" s="11"/>
+      <c r="G228" s="12"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
@@ -11661,7 +11671,7 @@
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
-      <c r="G229" s="11"/>
+      <c r="G229" s="12"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
@@ -11689,7 +11699,7 @@
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
-      <c r="G230" s="11"/>
+      <c r="G230" s="12"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
@@ -11717,7 +11727,7 @@
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
-      <c r="G231" s="11"/>
+      <c r="G231" s="12"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
@@ -11745,7 +11755,7 @@
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
-      <c r="G232" s="11"/>
+      <c r="G232" s="12"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
@@ -11773,7 +11783,7 @@
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
-      <c r="G233" s="11"/>
+      <c r="G233" s="12"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
@@ -11801,7 +11811,7 @@
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
-      <c r="G234" s="11"/>
+      <c r="G234" s="12"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
@@ -11829,7 +11839,7 @@
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
-      <c r="G235" s="11"/>
+      <c r="G235" s="12"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
@@ -11857,7 +11867,7 @@
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
-      <c r="G236" s="11"/>
+      <c r="G236" s="12"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
@@ -11885,7 +11895,7 @@
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
-      <c r="G237" s="11"/>
+      <c r="G237" s="12"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
@@ -11913,7 +11923,7 @@
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
-      <c r="G238" s="11"/>
+      <c r="G238" s="12"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
@@ -11941,7 +11951,7 @@
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
-      <c r="G239" s="11"/>
+      <c r="G239" s="12"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
@@ -11969,7 +11979,7 @@
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
-      <c r="G240" s="11"/>
+      <c r="G240" s="12"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
@@ -11997,7 +12007,7 @@
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
-      <c r="G241" s="11"/>
+      <c r="G241" s="12"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
@@ -12025,7 +12035,7 @@
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
-      <c r="G242" s="11"/>
+      <c r="G242" s="12"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
@@ -12053,7 +12063,7 @@
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
-      <c r="G243" s="11"/>
+      <c r="G243" s="12"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
@@ -12081,7 +12091,7 @@
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
-      <c r="G244" s="11"/>
+      <c r="G244" s="12"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
@@ -12109,7 +12119,7 @@
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
-      <c r="G245" s="11"/>
+      <c r="G245" s="12"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
@@ -12137,7 +12147,7 @@
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
-      <c r="G246" s="11"/>
+      <c r="G246" s="12"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
@@ -12165,7 +12175,7 @@
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
-      <c r="G247" s="11"/>
+      <c r="G247" s="12"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
@@ -12193,7 +12203,7 @@
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
-      <c r="G248" s="11"/>
+      <c r="G248" s="12"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
@@ -12221,7 +12231,7 @@
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
-      <c r="G249" s="11"/>
+      <c r="G249" s="12"/>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
@@ -12249,7 +12259,7 @@
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
-      <c r="G250" s="11"/>
+      <c r="G250" s="12"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
@@ -12277,7 +12287,7 @@
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
-      <c r="G251" s="11"/>
+      <c r="G251" s="12"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
@@ -12305,7 +12315,7 @@
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
-      <c r="G252" s="11"/>
+      <c r="G252" s="12"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
@@ -12333,7 +12343,7 @@
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
-      <c r="G253" s="11"/>
+      <c r="G253" s="12"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
@@ -12361,7 +12371,7 @@
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
-      <c r="G254" s="11"/>
+      <c r="G254" s="12"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
@@ -12389,7 +12399,7 @@
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
-      <c r="G255" s="11"/>
+      <c r="G255" s="12"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
@@ -12417,7 +12427,7 @@
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
-      <c r="G256" s="11"/>
+      <c r="G256" s="12"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
@@ -12445,7 +12455,7 @@
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
-      <c r="G257" s="11"/>
+      <c r="G257" s="12"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
@@ -12473,7 +12483,7 @@
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
-      <c r="G258" s="11"/>
+      <c r="G258" s="12"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
@@ -12501,7 +12511,7 @@
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
-      <c r="G259" s="11"/>
+      <c r="G259" s="12"/>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
@@ -12529,7 +12539,7 @@
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
-      <c r="G260" s="11"/>
+      <c r="G260" s="12"/>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
@@ -12557,7 +12567,7 @@
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
-      <c r="G261" s="11"/>
+      <c r="G261" s="12"/>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
@@ -12585,7 +12595,7 @@
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
-      <c r="G262" s="11"/>
+      <c r="G262" s="12"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
@@ -12613,7 +12623,7 @@
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
-      <c r="G263" s="11"/>
+      <c r="G263" s="12"/>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
@@ -12641,7 +12651,7 @@
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
-      <c r="G264" s="11"/>
+      <c r="G264" s="12"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
@@ -12669,7 +12679,7 @@
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
-      <c r="G265" s="11"/>
+      <c r="G265" s="12"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
@@ -12697,7 +12707,7 @@
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
-      <c r="G266" s="11"/>
+      <c r="G266" s="12"/>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
@@ -12725,7 +12735,7 @@
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
-      <c r="G267" s="11"/>
+      <c r="G267" s="12"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
@@ -12753,7 +12763,7 @@
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
-      <c r="G268" s="11"/>
+      <c r="G268" s="12"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
@@ -12781,7 +12791,7 @@
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
-      <c r="G269" s="11"/>
+      <c r="G269" s="12"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
@@ -12809,7 +12819,7 @@
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
-      <c r="G270" s="11"/>
+      <c r="G270" s="12"/>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
@@ -12837,7 +12847,7 @@
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
-      <c r="G271" s="11"/>
+      <c r="G271" s="12"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
@@ -12865,7 +12875,7 @@
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
-      <c r="G272" s="11"/>
+      <c r="G272" s="12"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
@@ -12893,7 +12903,7 @@
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
-      <c r="G273" s="11"/>
+      <c r="G273" s="12"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
@@ -12921,7 +12931,7 @@
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
-      <c r="G274" s="11"/>
+      <c r="G274" s="12"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
@@ -12949,7 +12959,7 @@
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
-      <c r="G275" s="11"/>
+      <c r="G275" s="12"/>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
@@ -12977,7 +12987,7 @@
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
-      <c r="G276" s="11"/>
+      <c r="G276" s="12"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
@@ -13005,7 +13015,7 @@
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
-      <c r="G277" s="11"/>
+      <c r="G277" s="12"/>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
@@ -13033,7 +13043,7 @@
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
-      <c r="G278" s="11"/>
+      <c r="G278" s="12"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
@@ -13061,7 +13071,7 @@
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
-      <c r="G279" s="11"/>
+      <c r="G279" s="12"/>
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
@@ -13089,7 +13099,7 @@
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
-      <c r="G280" s="11"/>
+      <c r="G280" s="12"/>
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
@@ -13117,7 +13127,7 @@
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
-      <c r="G281" s="11"/>
+      <c r="G281" s="12"/>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
@@ -13145,7 +13155,7 @@
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
-      <c r="G282" s="11"/>
+      <c r="G282" s="12"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
@@ -13173,7 +13183,7 @@
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
-      <c r="G283" s="11"/>
+      <c r="G283" s="12"/>
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
@@ -13201,7 +13211,7 @@
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
-      <c r="G284" s="11"/>
+      <c r="G284" s="12"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
@@ -13229,7 +13239,7 @@
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
-      <c r="G285" s="11"/>
+      <c r="G285" s="12"/>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
@@ -13257,7 +13267,7 @@
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
-      <c r="G286" s="11"/>
+      <c r="G286" s="12"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
@@ -13285,7 +13295,7 @@
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
-      <c r="G287" s="11"/>
+      <c r="G287" s="12"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
@@ -13313,7 +13323,7 @@
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
-      <c r="G288" s="11"/>
+      <c r="G288" s="12"/>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
@@ -13341,7 +13351,7 @@
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
-      <c r="G289" s="11"/>
+      <c r="G289" s="12"/>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
@@ -13369,7 +13379,7 @@
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
-      <c r="G290" s="11"/>
+      <c r="G290" s="12"/>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
@@ -13397,7 +13407,7 @@
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
-      <c r="G291" s="11"/>
+      <c r="G291" s="12"/>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
@@ -13425,7 +13435,7 @@
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
-      <c r="G292" s="11"/>
+      <c r="G292" s="12"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
@@ -13453,7 +13463,7 @@
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
-      <c r="G293" s="11"/>
+      <c r="G293" s="12"/>
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
@@ -13481,7 +13491,7 @@
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
-      <c r="G294" s="11"/>
+      <c r="G294" s="12"/>
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
@@ -13509,7 +13519,7 @@
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
-      <c r="G295" s="11"/>
+      <c r="G295" s="12"/>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
@@ -13537,7 +13547,7 @@
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
-      <c r="G296" s="11"/>
+      <c r="G296" s="12"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
@@ -13565,7 +13575,7 @@
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
-      <c r="G297" s="11"/>
+      <c r="G297" s="12"/>
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
@@ -13593,7 +13603,7 @@
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
-      <c r="G298" s="11"/>
+      <c r="G298" s="12"/>
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
@@ -13621,7 +13631,7 @@
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
-      <c r="G299" s="11"/>
+      <c r="G299" s="12"/>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
@@ -13649,7 +13659,7 @@
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
-      <c r="G300" s="11"/>
+      <c r="G300" s="12"/>
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
@@ -13677,7 +13687,7 @@
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
-      <c r="G301" s="11"/>
+      <c r="G301" s="12"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
@@ -13705,7 +13715,7 @@
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
-      <c r="G302" s="11"/>
+      <c r="G302" s="12"/>
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
@@ -13733,7 +13743,7 @@
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
-      <c r="G303" s="11"/>
+      <c r="G303" s="12"/>
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
@@ -13761,7 +13771,7 @@
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
-      <c r="G304" s="11"/>
+      <c r="G304" s="12"/>
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
@@ -13789,7 +13799,7 @@
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
-      <c r="G305" s="11"/>
+      <c r="G305" s="12"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
@@ -13817,7 +13827,7 @@
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
-      <c r="G306" s="11"/>
+      <c r="G306" s="12"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
@@ -13845,7 +13855,7 @@
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
-      <c r="G307" s="11"/>
+      <c r="G307" s="12"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
@@ -13873,7 +13883,7 @@
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
-      <c r="G308" s="11"/>
+      <c r="G308" s="12"/>
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
@@ -13901,7 +13911,7 @@
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
-      <c r="G309" s="11"/>
+      <c r="G309" s="12"/>
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
@@ -13929,7 +13939,7 @@
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
-      <c r="G310" s="11"/>
+      <c r="G310" s="12"/>
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
@@ -13957,7 +13967,7 @@
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
-      <c r="G311" s="11"/>
+      <c r="G311" s="12"/>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
@@ -13985,7 +13995,7 @@
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
-      <c r="G312" s="11"/>
+      <c r="G312" s="12"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
@@ -14013,7 +14023,7 @@
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
-      <c r="G313" s="11"/>
+      <c r="G313" s="12"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
@@ -14041,7 +14051,7 @@
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
-      <c r="G314" s="11"/>
+      <c r="G314" s="12"/>
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
@@ -14069,7 +14079,7 @@
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
-      <c r="G315" s="11"/>
+      <c r="G315" s="12"/>
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
@@ -14097,7 +14107,7 @@
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
-      <c r="G316" s="11"/>
+      <c r="G316" s="12"/>
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
@@ -14125,7 +14135,7 @@
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
-      <c r="G317" s="11"/>
+      <c r="G317" s="12"/>
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
@@ -14153,7 +14163,7 @@
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
-      <c r="G318" s="11"/>
+      <c r="G318" s="12"/>
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
@@ -14181,7 +14191,7 @@
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
-      <c r="G319" s="11"/>
+      <c r="G319" s="12"/>
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
@@ -14209,7 +14219,7 @@
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
-      <c r="G320" s="11"/>
+      <c r="G320" s="12"/>
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
@@ -14237,7 +14247,7 @@
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
-      <c r="G321" s="11"/>
+      <c r="G321" s="12"/>
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
@@ -14265,7 +14275,7 @@
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
-      <c r="G322" s="11"/>
+      <c r="G322" s="12"/>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
@@ -14293,7 +14303,7 @@
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
-      <c r="G323" s="11"/>
+      <c r="G323" s="12"/>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
@@ -14321,7 +14331,7 @@
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
-      <c r="G324" s="11"/>
+      <c r="G324" s="12"/>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
@@ -14349,7 +14359,7 @@
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
-      <c r="G325" s="11"/>
+      <c r="G325" s="12"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
@@ -14377,7 +14387,7 @@
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
-      <c r="G326" s="11"/>
+      <c r="G326" s="12"/>
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
@@ -14405,7 +14415,7 @@
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
-      <c r="G327" s="11"/>
+      <c r="G327" s="12"/>
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
@@ -14433,7 +14443,7 @@
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
-      <c r="G328" s="11"/>
+      <c r="G328" s="12"/>
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
@@ -14461,7 +14471,7 @@
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
-      <c r="G329" s="11"/>
+      <c r="G329" s="12"/>
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
@@ -14489,7 +14499,7 @@
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
-      <c r="G330" s="11"/>
+      <c r="G330" s="12"/>
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
@@ -14517,7 +14527,7 @@
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
-      <c r="G331" s="11"/>
+      <c r="G331" s="12"/>
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
@@ -14545,7 +14555,7 @@
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
-      <c r="G332" s="11"/>
+      <c r="G332" s="12"/>
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
@@ -14573,7 +14583,7 @@
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
-      <c r="G333" s="11"/>
+      <c r="G333" s="12"/>
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
@@ -14601,7 +14611,7 @@
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
-      <c r="G334" s="11"/>
+      <c r="G334" s="12"/>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
@@ -14629,7 +14639,7 @@
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
-      <c r="G335" s="11"/>
+      <c r="G335" s="12"/>
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
@@ -14657,7 +14667,7 @@
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
-      <c r="G336" s="11"/>
+      <c r="G336" s="12"/>
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
@@ -14685,7 +14695,7 @@
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
-      <c r="G337" s="11"/>
+      <c r="G337" s="12"/>
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
@@ -14713,7 +14723,7 @@
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
-      <c r="G338" s="11"/>
+      <c r="G338" s="12"/>
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
@@ -14741,7 +14751,7 @@
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
-      <c r="G339" s="11"/>
+      <c r="G339" s="12"/>
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
@@ -14769,7 +14779,7 @@
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
-      <c r="G340" s="11"/>
+      <c r="G340" s="12"/>
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
@@ -14797,7 +14807,7 @@
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
-      <c r="G341" s="11"/>
+      <c r="G341" s="12"/>
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
@@ -14825,7 +14835,7 @@
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
-      <c r="G342" s="11"/>
+      <c r="G342" s="12"/>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
@@ -14853,7 +14863,7 @@
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
-      <c r="G343" s="11"/>
+      <c r="G343" s="12"/>
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
@@ -14881,7 +14891,7 @@
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
-      <c r="G344" s="11"/>
+      <c r="G344" s="12"/>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
@@ -14909,7 +14919,7 @@
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
-      <c r="G345" s="11"/>
+      <c r="G345" s="12"/>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
@@ -14937,7 +14947,7 @@
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
-      <c r="G346" s="11"/>
+      <c r="G346" s="12"/>
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
@@ -14965,7 +14975,7 @@
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
-      <c r="G347" s="11"/>
+      <c r="G347" s="12"/>
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
@@ -14993,7 +15003,7 @@
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
-      <c r="G348" s="11"/>
+      <c r="G348" s="12"/>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
@@ -15021,7 +15031,7 @@
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
-      <c r="G349" s="11"/>
+      <c r="G349" s="12"/>
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
@@ -15049,7 +15059,7 @@
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
-      <c r="G350" s="11"/>
+      <c r="G350" s="12"/>
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
@@ -15077,7 +15087,7 @@
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
-      <c r="G351" s="11"/>
+      <c r="G351" s="12"/>
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
@@ -15105,7 +15115,7 @@
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
-      <c r="G352" s="11"/>
+      <c r="G352" s="12"/>
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
@@ -15133,7 +15143,7 @@
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
-      <c r="G353" s="11"/>
+      <c r="G353" s="12"/>
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
@@ -15161,7 +15171,7 @@
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
-      <c r="G354" s="11"/>
+      <c r="G354" s="12"/>
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
@@ -15189,7 +15199,7 @@
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
-      <c r="G355" s="11"/>
+      <c r="G355" s="12"/>
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
@@ -15217,7 +15227,7 @@
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
-      <c r="G356" s="11"/>
+      <c r="G356" s="12"/>
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
@@ -15245,7 +15255,7 @@
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
-      <c r="G357" s="11"/>
+      <c r="G357" s="12"/>
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
@@ -15273,7 +15283,7 @@
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
-      <c r="G358" s="11"/>
+      <c r="G358" s="12"/>
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
@@ -15301,7 +15311,7 @@
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
-      <c r="G359" s="11"/>
+      <c r="G359" s="12"/>
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
@@ -15329,7 +15339,7 @@
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
-      <c r="G360" s="11"/>
+      <c r="G360" s="12"/>
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
@@ -15357,7 +15367,7 @@
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
-      <c r="G361" s="11"/>
+      <c r="G361" s="12"/>
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
@@ -15385,7 +15395,7 @@
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
-      <c r="G362" s="11"/>
+      <c r="G362" s="12"/>
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
@@ -15413,7 +15423,7 @@
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
-      <c r="G363" s="11"/>
+      <c r="G363" s="12"/>
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
@@ -15441,7 +15451,7 @@
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
-      <c r="G364" s="11"/>
+      <c r="G364" s="12"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
@@ -15469,7 +15479,7 @@
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
-      <c r="G365" s="11"/>
+      <c r="G365" s="12"/>
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
@@ -15497,7 +15507,7 @@
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
-      <c r="G366" s="11"/>
+      <c r="G366" s="12"/>
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
@@ -15525,7 +15535,7 @@
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
-      <c r="G367" s="11"/>
+      <c r="G367" s="12"/>
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
@@ -15553,7 +15563,7 @@
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
-      <c r="G368" s="11"/>
+      <c r="G368" s="12"/>
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
@@ -15581,7 +15591,7 @@
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
-      <c r="G369" s="11"/>
+      <c r="G369" s="12"/>
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
@@ -15609,7 +15619,7 @@
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
-      <c r="G370" s="11"/>
+      <c r="G370" s="12"/>
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
@@ -15637,7 +15647,7 @@
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
-      <c r="G371" s="11"/>
+      <c r="G371" s="12"/>
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
@@ -15665,7 +15675,7 @@
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
-      <c r="G372" s="11"/>
+      <c r="G372" s="12"/>
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
@@ -15693,7 +15703,7 @@
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
-      <c r="G373" s="11"/>
+      <c r="G373" s="12"/>
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
@@ -15721,7 +15731,7 @@
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
-      <c r="G374" s="11"/>
+      <c r="G374" s="12"/>
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
@@ -15749,7 +15759,7 @@
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
-      <c r="G375" s="11"/>
+      <c r="G375" s="12"/>
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
@@ -15777,7 +15787,7 @@
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
-      <c r="G376" s="11"/>
+      <c r="G376" s="12"/>
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
@@ -15805,7 +15815,7 @@
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
-      <c r="G377" s="11"/>
+      <c r="G377" s="12"/>
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
@@ -15833,7 +15843,7 @@
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
-      <c r="G378" s="11"/>
+      <c r="G378" s="12"/>
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
@@ -15861,7 +15871,7 @@
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
-      <c r="G379" s="11"/>
+      <c r="G379" s="12"/>
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
@@ -15889,7 +15899,7 @@
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
-      <c r="G380" s="11"/>
+      <c r="G380" s="12"/>
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
@@ -15917,7 +15927,7 @@
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
-      <c r="G381" s="11"/>
+      <c r="G381" s="12"/>
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
@@ -15945,7 +15955,7 @@
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
-      <c r="G382" s="11"/>
+      <c r="G382" s="12"/>
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
@@ -15973,7 +15983,7 @@
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
-      <c r="G383" s="11"/>
+      <c r="G383" s="12"/>
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
@@ -16001,7 +16011,7 @@
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
-      <c r="G384" s="11"/>
+      <c r="G384" s="12"/>
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
@@ -16029,7 +16039,7 @@
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
-      <c r="G385" s="11"/>
+      <c r="G385" s="12"/>
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
@@ -16057,7 +16067,7 @@
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
-      <c r="G386" s="11"/>
+      <c r="G386" s="12"/>
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
@@ -16085,7 +16095,7 @@
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
-      <c r="G387" s="11"/>
+      <c r="G387" s="12"/>
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
@@ -16113,7 +16123,7 @@
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
-      <c r="G388" s="11"/>
+      <c r="G388" s="12"/>
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
@@ -16141,7 +16151,7 @@
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
-      <c r="G389" s="11"/>
+      <c r="G389" s="12"/>
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
@@ -16169,7 +16179,7 @@
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
-      <c r="G390" s="11"/>
+      <c r="G390" s="12"/>
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
@@ -16197,7 +16207,7 @@
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
-      <c r="G391" s="11"/>
+      <c r="G391" s="12"/>
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
@@ -16225,7 +16235,7 @@
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
-      <c r="G392" s="11"/>
+      <c r="G392" s="12"/>
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
@@ -16253,7 +16263,7 @@
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
-      <c r="G393" s="11"/>
+      <c r="G393" s="12"/>
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
@@ -16281,7 +16291,7 @@
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
-      <c r="G394" s="11"/>
+      <c r="G394" s="12"/>
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
@@ -16309,7 +16319,7 @@
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
-      <c r="G395" s="11"/>
+      <c r="G395" s="12"/>
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
@@ -16337,7 +16347,7 @@
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
-      <c r="G396" s="11"/>
+      <c r="G396" s="12"/>
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
@@ -16365,7 +16375,7 @@
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
-      <c r="G397" s="11"/>
+      <c r="G397" s="12"/>
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
@@ -16393,7 +16403,7 @@
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
-      <c r="G398" s="11"/>
+      <c r="G398" s="12"/>
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
@@ -16421,7 +16431,7 @@
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
-      <c r="G399" s="11"/>
+      <c r="G399" s="12"/>
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
@@ -16449,7 +16459,7 @@
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
-      <c r="G400" s="11"/>
+      <c r="G400" s="12"/>
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
@@ -16477,7 +16487,7 @@
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
-      <c r="G401" s="11"/>
+      <c r="G401" s="12"/>
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
@@ -16505,7 +16515,7 @@
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
-      <c r="G402" s="11"/>
+      <c r="G402" s="12"/>
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
@@ -16533,7 +16543,7 @@
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
-      <c r="G403" s="11"/>
+      <c r="G403" s="12"/>
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
@@ -16561,7 +16571,7 @@
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
-      <c r="G404" s="11"/>
+      <c r="G404" s="12"/>
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
@@ -16589,7 +16599,7 @@
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
-      <c r="G405" s="11"/>
+      <c r="G405" s="12"/>
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
@@ -16617,7 +16627,7 @@
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
-      <c r="G406" s="11"/>
+      <c r="G406" s="12"/>
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
@@ -16645,7 +16655,7 @@
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
-      <c r="G407" s="11"/>
+      <c r="G407" s="12"/>
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
@@ -16673,7 +16683,7 @@
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
-      <c r="G408" s="11"/>
+      <c r="G408" s="12"/>
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
@@ -16701,7 +16711,7 @@
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
-      <c r="G409" s="11"/>
+      <c r="G409" s="12"/>
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
@@ -16729,7 +16739,7 @@
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
-      <c r="G410" s="11"/>
+      <c r="G410" s="12"/>
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
@@ -16757,7 +16767,7 @@
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
-      <c r="G411" s="11"/>
+      <c r="G411" s="12"/>
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
@@ -16785,7 +16795,7 @@
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
-      <c r="G412" s="11"/>
+      <c r="G412" s="12"/>
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
@@ -16813,7 +16823,7 @@
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
-      <c r="G413" s="11"/>
+      <c r="G413" s="12"/>
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
@@ -16841,7 +16851,7 @@
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
-      <c r="G414" s="11"/>
+      <c r="G414" s="12"/>
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
@@ -16869,7 +16879,7 @@
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
-      <c r="G415" s="11"/>
+      <c r="G415" s="12"/>
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
@@ -16897,7 +16907,7 @@
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
-      <c r="G416" s="11"/>
+      <c r="G416" s="12"/>
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
@@ -16925,7 +16935,7 @@
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
-      <c r="G417" s="11"/>
+      <c r="G417" s="12"/>
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
@@ -16953,7 +16963,7 @@
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
-      <c r="G418" s="11"/>
+      <c r="G418" s="12"/>
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
@@ -16981,7 +16991,7 @@
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
-      <c r="G419" s="11"/>
+      <c r="G419" s="12"/>
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
@@ -17009,7 +17019,7 @@
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
-      <c r="G420" s="11"/>
+      <c r="G420" s="12"/>
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
@@ -17037,7 +17047,7 @@
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
-      <c r="G421" s="11"/>
+      <c r="G421" s="12"/>
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
@@ -17065,7 +17075,7 @@
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
-      <c r="G422" s="11"/>
+      <c r="G422" s="12"/>
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
@@ -17093,7 +17103,7 @@
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
-      <c r="G423" s="11"/>
+      <c r="G423" s="12"/>
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
@@ -17121,7 +17131,7 @@
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
-      <c r="G424" s="11"/>
+      <c r="G424" s="12"/>
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
@@ -17149,7 +17159,7 @@
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
-      <c r="G425" s="11"/>
+      <c r="G425" s="12"/>
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
@@ -17177,7 +17187,7 @@
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
-      <c r="G426" s="11"/>
+      <c r="G426" s="12"/>
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
@@ -17205,7 +17215,7 @@
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
-      <c r="G427" s="11"/>
+      <c r="G427" s="12"/>
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
@@ -17233,7 +17243,7 @@
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
-      <c r="G428" s="11"/>
+      <c r="G428" s="12"/>
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
@@ -17261,7 +17271,7 @@
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
-      <c r="G429" s="11"/>
+      <c r="G429" s="12"/>
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
@@ -17289,7 +17299,7 @@
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
-      <c r="G430" s="11"/>
+      <c r="G430" s="12"/>
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
@@ -17317,7 +17327,7 @@
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
-      <c r="G431" s="11"/>
+      <c r="G431" s="12"/>
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
@@ -17345,7 +17355,7 @@
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
-      <c r="G432" s="11"/>
+      <c r="G432" s="12"/>
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
@@ -17373,7 +17383,7 @@
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
-      <c r="G433" s="11"/>
+      <c r="G433" s="12"/>
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
@@ -17401,7 +17411,7 @@
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
-      <c r="G434" s="11"/>
+      <c r="G434" s="12"/>
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
@@ -17429,7 +17439,7 @@
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
-      <c r="G435" s="11"/>
+      <c r="G435" s="12"/>
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
@@ -17457,7 +17467,7 @@
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
-      <c r="G436" s="11"/>
+      <c r="G436" s="12"/>
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
@@ -17485,7 +17495,7 @@
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
-      <c r="G437" s="11"/>
+      <c r="G437" s="12"/>
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
@@ -17513,7 +17523,7 @@
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
-      <c r="G438" s="11"/>
+      <c r="G438" s="12"/>
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
@@ -17541,7 +17551,7 @@
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
-      <c r="G439" s="11"/>
+      <c r="G439" s="12"/>
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
@@ -17569,7 +17579,7 @@
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
-      <c r="G440" s="11"/>
+      <c r="G440" s="12"/>
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
@@ -17597,7 +17607,7 @@
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
-      <c r="G441" s="11"/>
+      <c r="G441" s="12"/>
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
@@ -17625,7 +17635,7 @@
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
-      <c r="G442" s="11"/>
+      <c r="G442" s="12"/>
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
@@ -17653,7 +17663,7 @@
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
-      <c r="G443" s="11"/>
+      <c r="G443" s="12"/>
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
@@ -17681,7 +17691,7 @@
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
-      <c r="G444" s="11"/>
+      <c r="G444" s="12"/>
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
@@ -17709,7 +17719,7 @@
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
-      <c r="G445" s="11"/>
+      <c r="G445" s="12"/>
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
@@ -17737,7 +17747,7 @@
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
-      <c r="G446" s="11"/>
+      <c r="G446" s="12"/>
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
@@ -17765,7 +17775,7 @@
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
-      <c r="G447" s="11"/>
+      <c r="G447" s="12"/>
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
@@ -17793,7 +17803,7 @@
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
-      <c r="G448" s="11"/>
+      <c r="G448" s="12"/>
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
@@ -17821,7 +17831,7 @@
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
-      <c r="G449" s="11"/>
+      <c r="G449" s="12"/>
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
@@ -17849,7 +17859,7 @@
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
-      <c r="G450" s="11"/>
+      <c r="G450" s="12"/>
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
@@ -17877,7 +17887,7 @@
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
-      <c r="G451" s="11"/>
+      <c r="G451" s="12"/>
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
@@ -17905,7 +17915,7 @@
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
-      <c r="G452" s="11"/>
+      <c r="G452" s="12"/>
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
@@ -17933,7 +17943,7 @@
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
-      <c r="G453" s="11"/>
+      <c r="G453" s="12"/>
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
@@ -17961,7 +17971,7 @@
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
-      <c r="G454" s="11"/>
+      <c r="G454" s="12"/>
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
@@ -17989,7 +17999,7 @@
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
-      <c r="G455" s="11"/>
+      <c r="G455" s="12"/>
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
@@ -18017,7 +18027,7 @@
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
-      <c r="G456" s="11"/>
+      <c r="G456" s="12"/>
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
@@ -18045,7 +18055,7 @@
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
-      <c r="G457" s="11"/>
+      <c r="G457" s="12"/>
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
@@ -18073,7 +18083,7 @@
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
-      <c r="G458" s="11"/>
+      <c r="G458" s="12"/>
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
@@ -18101,7 +18111,7 @@
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
-      <c r="G459" s="11"/>
+      <c r="G459" s="12"/>
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
@@ -18129,7 +18139,7 @@
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
-      <c r="G460" s="11"/>
+      <c r="G460" s="12"/>
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
@@ -18157,7 +18167,7 @@
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
-      <c r="G461" s="11"/>
+      <c r="G461" s="12"/>
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
@@ -18185,7 +18195,7 @@
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
-      <c r="G462" s="11"/>
+      <c r="G462" s="12"/>
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
@@ -18213,7 +18223,7 @@
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
-      <c r="G463" s="11"/>
+      <c r="G463" s="12"/>
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
@@ -18241,7 +18251,7 @@
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
-      <c r="G464" s="11"/>
+      <c r="G464" s="12"/>
       <c r="H464" s="3"/>
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
@@ -18269,7 +18279,7 @@
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
-      <c r="G465" s="11"/>
+      <c r="G465" s="12"/>
       <c r="H465" s="3"/>
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
@@ -18297,7 +18307,7 @@
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
-      <c r="G466" s="11"/>
+      <c r="G466" s="12"/>
       <c r="H466" s="3"/>
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
@@ -18325,7 +18335,7 @@
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
-      <c r="G467" s="11"/>
+      <c r="G467" s="12"/>
       <c r="H467" s="3"/>
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
@@ -18353,7 +18363,7 @@
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
-      <c r="G468" s="11"/>
+      <c r="G468" s="12"/>
       <c r="H468" s="3"/>
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
@@ -18381,7 +18391,7 @@
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
-      <c r="G469" s="11"/>
+      <c r="G469" s="12"/>
       <c r="H469" s="3"/>
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
@@ -18409,7 +18419,7 @@
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
-      <c r="G470" s="11"/>
+      <c r="G470" s="12"/>
       <c r="H470" s="3"/>
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
@@ -18437,7 +18447,7 @@
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
-      <c r="G471" s="11"/>
+      <c r="G471" s="12"/>
       <c r="H471" s="3"/>
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
@@ -18465,7 +18475,7 @@
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
-      <c r="G472" s="11"/>
+      <c r="G472" s="12"/>
       <c r="H472" s="3"/>
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
@@ -18493,7 +18503,7 @@
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
-      <c r="G473" s="11"/>
+      <c r="G473" s="12"/>
       <c r="H473" s="3"/>
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
@@ -18521,7 +18531,7 @@
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
-      <c r="G474" s="11"/>
+      <c r="G474" s="12"/>
       <c r="H474" s="3"/>
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
@@ -18549,7 +18559,7 @@
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
-      <c r="G475" s="11"/>
+      <c r="G475" s="12"/>
       <c r="H475" s="3"/>
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
@@ -18577,7 +18587,7 @@
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
-      <c r="G476" s="11"/>
+      <c r="G476" s="12"/>
       <c r="H476" s="3"/>
       <c r="I476" s="3"/>
       <c r="J476" s="3"/>
@@ -18605,7 +18615,7 @@
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
-      <c r="G477" s="11"/>
+      <c r="G477" s="12"/>
       <c r="H477" s="3"/>
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
@@ -18633,7 +18643,7 @@
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
-      <c r="G478" s="11"/>
+      <c r="G478" s="12"/>
       <c r="H478" s="3"/>
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
@@ -18661,7 +18671,7 @@
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
-      <c r="G479" s="11"/>
+      <c r="G479" s="12"/>
       <c r="H479" s="3"/>
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
@@ -18689,7 +18699,7 @@
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
-      <c r="G480" s="11"/>
+      <c r="G480" s="12"/>
       <c r="H480" s="3"/>
       <c r="I480" s="3"/>
       <c r="J480" s="3"/>
@@ -18717,7 +18727,7 @@
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
-      <c r="G481" s="11"/>
+      <c r="G481" s="12"/>
       <c r="H481" s="3"/>
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
@@ -18745,7 +18755,7 @@
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
-      <c r="G482" s="11"/>
+      <c r="G482" s="12"/>
       <c r="H482" s="3"/>
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
@@ -18773,7 +18783,7 @@
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
-      <c r="G483" s="11"/>
+      <c r="G483" s="12"/>
       <c r="H483" s="3"/>
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
@@ -18801,7 +18811,7 @@
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
-      <c r="G484" s="11"/>
+      <c r="G484" s="12"/>
       <c r="H484" s="3"/>
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
@@ -18829,7 +18839,7 @@
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
-      <c r="G485" s="11"/>
+      <c r="G485" s="12"/>
       <c r="H485" s="3"/>
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
@@ -18857,7 +18867,7 @@
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
-      <c r="G486" s="11"/>
+      <c r="G486" s="12"/>
       <c r="H486" s="3"/>
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
@@ -18885,7 +18895,7 @@
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
-      <c r="G487" s="11"/>
+      <c r="G487" s="12"/>
       <c r="H487" s="3"/>
       <c r="I487" s="3"/>
       <c r="J487" s="3"/>
@@ -18913,7 +18923,7 @@
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
-      <c r="G488" s="11"/>
+      <c r="G488" s="12"/>
       <c r="H488" s="3"/>
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
@@ -18941,7 +18951,7 @@
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
-      <c r="G489" s="11"/>
+      <c r="G489" s="12"/>
       <c r="H489" s="3"/>
       <c r="I489" s="3"/>
       <c r="J489" s="3"/>
@@ -18969,7 +18979,7 @@
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
-      <c r="G490" s="11"/>
+      <c r="G490" s="12"/>
       <c r="H490" s="3"/>
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
@@ -18997,7 +19007,7 @@
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
-      <c r="G491" s="11"/>
+      <c r="G491" s="12"/>
       <c r="H491" s="3"/>
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
@@ -19025,7 +19035,7 @@
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
-      <c r="G492" s="11"/>
+      <c r="G492" s="12"/>
       <c r="H492" s="3"/>
       <c r="I492" s="3"/>
       <c r="J492" s="3"/>
@@ -19053,7 +19063,7 @@
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
-      <c r="G493" s="11"/>
+      <c r="G493" s="12"/>
       <c r="H493" s="3"/>
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
@@ -19081,7 +19091,7 @@
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
-      <c r="G494" s="11"/>
+      <c r="G494" s="12"/>
       <c r="H494" s="3"/>
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
@@ -19109,7 +19119,7 @@
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
-      <c r="G495" s="11"/>
+      <c r="G495" s="12"/>
       <c r="H495" s="3"/>
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
@@ -19137,7 +19147,7 @@
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
-      <c r="G496" s="11"/>
+      <c r="G496" s="12"/>
       <c r="H496" s="3"/>
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
@@ -19165,7 +19175,7 @@
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
-      <c r="G497" s="11"/>
+      <c r="G497" s="12"/>
       <c r="H497" s="3"/>
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
@@ -19193,7 +19203,7 @@
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
-      <c r="G498" s="11"/>
+      <c r="G498" s="12"/>
       <c r="H498" s="3"/>
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
@@ -19221,7 +19231,7 @@
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
-      <c r="G499" s="11"/>
+      <c r="G499" s="12"/>
       <c r="H499" s="3"/>
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
@@ -19249,7 +19259,7 @@
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
-      <c r="G500" s="11"/>
+      <c r="G500" s="12"/>
       <c r="H500" s="3"/>
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
@@ -19277,7 +19287,7 @@
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
-      <c r="G501" s="11"/>
+      <c r="G501" s="12"/>
       <c r="H501" s="3"/>
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
@@ -19305,7 +19315,7 @@
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
-      <c r="G502" s="11"/>
+      <c r="G502" s="12"/>
       <c r="H502" s="3"/>
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
@@ -19333,7 +19343,7 @@
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
-      <c r="G503" s="11"/>
+      <c r="G503" s="12"/>
       <c r="H503" s="3"/>
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
@@ -19361,7 +19371,7 @@
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
-      <c r="G504" s="11"/>
+      <c r="G504" s="12"/>
       <c r="H504" s="3"/>
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
@@ -19389,7 +19399,7 @@
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
-      <c r="G505" s="11"/>
+      <c r="G505" s="12"/>
       <c r="H505" s="3"/>
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
@@ -19417,7 +19427,7 @@
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
-      <c r="G506" s="11"/>
+      <c r="G506" s="12"/>
       <c r="H506" s="3"/>
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
@@ -19445,7 +19455,7 @@
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
-      <c r="G507" s="11"/>
+      <c r="G507" s="12"/>
       <c r="H507" s="3"/>
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
@@ -19473,7 +19483,7 @@
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
-      <c r="G508" s="11"/>
+      <c r="G508" s="12"/>
       <c r="H508" s="3"/>
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
@@ -19501,7 +19511,7 @@
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
-      <c r="G509" s="11"/>
+      <c r="G509" s="12"/>
       <c r="H509" s="3"/>
       <c r="I509" s="3"/>
       <c r="J509" s="3"/>
@@ -19529,7 +19539,7 @@
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
-      <c r="G510" s="11"/>
+      <c r="G510" s="12"/>
       <c r="H510" s="3"/>
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
@@ -19557,7 +19567,7 @@
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
-      <c r="G511" s="11"/>
+      <c r="G511" s="12"/>
       <c r="H511" s="3"/>
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
@@ -19585,7 +19595,7 @@
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
-      <c r="G512" s="11"/>
+      <c r="G512" s="12"/>
       <c r="H512" s="3"/>
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
@@ -19613,7 +19623,7 @@
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
-      <c r="G513" s="11"/>
+      <c r="G513" s="12"/>
       <c r="H513" s="3"/>
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
@@ -19641,7 +19651,7 @@
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
-      <c r="G514" s="11"/>
+      <c r="G514" s="12"/>
       <c r="H514" s="3"/>
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
@@ -19669,7 +19679,7 @@
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
-      <c r="G515" s="11"/>
+      <c r="G515" s="12"/>
       <c r="H515" s="3"/>
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
@@ -19697,7 +19707,7 @@
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
-      <c r="G516" s="11"/>
+      <c r="G516" s="12"/>
       <c r="H516" s="3"/>
       <c r="I516" s="3"/>
       <c r="J516" s="3"/>
@@ -19725,7 +19735,7 @@
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
-      <c r="G517" s="11"/>
+      <c r="G517" s="12"/>
       <c r="H517" s="3"/>
       <c r="I517" s="3"/>
       <c r="J517" s="3"/>
@@ -19753,7 +19763,7 @@
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
-      <c r="G518" s="11"/>
+      <c r="G518" s="12"/>
       <c r="H518" s="3"/>
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
@@ -19781,7 +19791,7 @@
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
-      <c r="G519" s="11"/>
+      <c r="G519" s="12"/>
       <c r="H519" s="3"/>
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
@@ -19809,7 +19819,7 @@
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
-      <c r="G520" s="11"/>
+      <c r="G520" s="12"/>
       <c r="H520" s="3"/>
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
@@ -19837,7 +19847,7 @@
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
-      <c r="G521" s="11"/>
+      <c r="G521" s="12"/>
       <c r="H521" s="3"/>
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
@@ -19865,7 +19875,7 @@
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
-      <c r="G522" s="11"/>
+      <c r="G522" s="12"/>
       <c r="H522" s="3"/>
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
@@ -19893,7 +19903,7 @@
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
-      <c r="G523" s="11"/>
+      <c r="G523" s="12"/>
       <c r="H523" s="3"/>
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
@@ -19921,7 +19931,7 @@
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
-      <c r="G524" s="11"/>
+      <c r="G524" s="12"/>
       <c r="H524" s="3"/>
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
@@ -19949,7 +19959,7 @@
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
-      <c r="G525" s="11"/>
+      <c r="G525" s="12"/>
       <c r="H525" s="3"/>
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
@@ -19977,7 +19987,7 @@
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
-      <c r="G526" s="11"/>
+      <c r="G526" s="12"/>
       <c r="H526" s="3"/>
       <c r="I526" s="3"/>
       <c r="J526" s="3"/>
@@ -20005,7 +20015,7 @@
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
-      <c r="G527" s="11"/>
+      <c r="G527" s="12"/>
       <c r="H527" s="3"/>
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
@@ -20033,7 +20043,7 @@
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
-      <c r="G528" s="11"/>
+      <c r="G528" s="12"/>
       <c r="H528" s="3"/>
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
@@ -20061,7 +20071,7 @@
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
-      <c r="G529" s="11"/>
+      <c r="G529" s="12"/>
       <c r="H529" s="3"/>
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
@@ -20089,7 +20099,7 @@
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
-      <c r="G530" s="11"/>
+      <c r="G530" s="12"/>
       <c r="H530" s="3"/>
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
@@ -20117,7 +20127,7 @@
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
-      <c r="G531" s="11"/>
+      <c r="G531" s="12"/>
       <c r="H531" s="3"/>
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
@@ -20145,7 +20155,7 @@
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
-      <c r="G532" s="11"/>
+      <c r="G532" s="12"/>
       <c r="H532" s="3"/>
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
@@ -20173,7 +20183,7 @@
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
-      <c r="G533" s="11"/>
+      <c r="G533" s="12"/>
       <c r="H533" s="3"/>
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
@@ -20201,7 +20211,7 @@
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
-      <c r="G534" s="11"/>
+      <c r="G534" s="12"/>
       <c r="H534" s="3"/>
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
@@ -20229,7 +20239,7 @@
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
-      <c r="G535" s="11"/>
+      <c r="G535" s="12"/>
       <c r="H535" s="3"/>
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
@@ -20257,7 +20267,7 @@
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
-      <c r="G536" s="11"/>
+      <c r="G536" s="12"/>
       <c r="H536" s="3"/>
       <c r="I536" s="3"/>
       <c r="J536" s="3"/>
@@ -20285,7 +20295,7 @@
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
-      <c r="G537" s="11"/>
+      <c r="G537" s="12"/>
       <c r="H537" s="3"/>
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
@@ -20313,7 +20323,7 @@
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
-      <c r="G538" s="11"/>
+      <c r="G538" s="12"/>
       <c r="H538" s="3"/>
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
@@ -20341,7 +20351,7 @@
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
-      <c r="G539" s="11"/>
+      <c r="G539" s="12"/>
       <c r="H539" s="3"/>
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
@@ -20369,7 +20379,7 @@
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
-      <c r="G540" s="11"/>
+      <c r="G540" s="12"/>
       <c r="H540" s="3"/>
       <c r="I540" s="3"/>
       <c r="J540" s="3"/>
@@ -20397,7 +20407,7 @@
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
-      <c r="G541" s="11"/>
+      <c r="G541" s="12"/>
       <c r="H541" s="3"/>
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
@@ -20425,7 +20435,7 @@
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
-      <c r="G542" s="11"/>
+      <c r="G542" s="12"/>
       <c r="H542" s="3"/>
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
@@ -20453,7 +20463,7 @@
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
-      <c r="G543" s="11"/>
+      <c r="G543" s="12"/>
       <c r="H543" s="3"/>
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
@@ -20481,7 +20491,7 @@
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
-      <c r="G544" s="11"/>
+      <c r="G544" s="12"/>
       <c r="H544" s="3"/>
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
@@ -20509,7 +20519,7 @@
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
-      <c r="G545" s="11"/>
+      <c r="G545" s="12"/>
       <c r="H545" s="3"/>
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
@@ -20537,7 +20547,7 @@
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
-      <c r="G546" s="11"/>
+      <c r="G546" s="12"/>
       <c r="H546" s="3"/>
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
@@ -20565,7 +20575,7 @@
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
-      <c r="G547" s="11"/>
+      <c r="G547" s="12"/>
       <c r="H547" s="3"/>
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
@@ -20593,7 +20603,7 @@
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
-      <c r="G548" s="11"/>
+      <c r="G548" s="12"/>
       <c r="H548" s="3"/>
       <c r="I548" s="3"/>
       <c r="J548" s="3"/>
@@ -20621,7 +20631,7 @@
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
-      <c r="G549" s="11"/>
+      <c r="G549" s="12"/>
       <c r="H549" s="3"/>
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
@@ -20649,7 +20659,7 @@
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
-      <c r="G550" s="11"/>
+      <c r="G550" s="12"/>
       <c r="H550" s="3"/>
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
@@ -20677,7 +20687,7 @@
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
-      <c r="G551" s="11"/>
+      <c r="G551" s="12"/>
       <c r="H551" s="3"/>
       <c r="I551" s="3"/>
       <c r="J551" s="3"/>
@@ -20705,7 +20715,7 @@
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
-      <c r="G552" s="11"/>
+      <c r="G552" s="12"/>
       <c r="H552" s="3"/>
       <c r="I552" s="3"/>
       <c r="J552" s="3"/>
@@ -20733,7 +20743,7 @@
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
-      <c r="G553" s="11"/>
+      <c r="G553" s="12"/>
       <c r="H553" s="3"/>
       <c r="I553" s="3"/>
       <c r="J553" s="3"/>
@@ -20761,7 +20771,7 @@
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
-      <c r="G554" s="11"/>
+      <c r="G554" s="12"/>
       <c r="H554" s="3"/>
       <c r="I554" s="3"/>
       <c r="J554" s="3"/>
@@ -20789,7 +20799,7 @@
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
-      <c r="G555" s="11"/>
+      <c r="G555" s="12"/>
       <c r="H555" s="3"/>
       <c r="I555" s="3"/>
       <c r="J555" s="3"/>
@@ -20817,7 +20827,7 @@
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
-      <c r="G556" s="11"/>
+      <c r="G556" s="12"/>
       <c r="H556" s="3"/>
       <c r="I556" s="3"/>
       <c r="J556" s="3"/>
@@ -20845,7 +20855,7 @@
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
-      <c r="G557" s="11"/>
+      <c r="G557" s="12"/>
       <c r="H557" s="3"/>
       <c r="I557" s="3"/>
       <c r="J557" s="3"/>
@@ -20873,7 +20883,7 @@
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
-      <c r="G558" s="11"/>
+      <c r="G558" s="12"/>
       <c r="H558" s="3"/>
       <c r="I558" s="3"/>
       <c r="J558" s="3"/>
@@ -20901,7 +20911,7 @@
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
-      <c r="G559" s="11"/>
+      <c r="G559" s="12"/>
       <c r="H559" s="3"/>
       <c r="I559" s="3"/>
       <c r="J559" s="3"/>
@@ -20929,7 +20939,7 @@
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
-      <c r="G560" s="11"/>
+      <c r="G560" s="12"/>
       <c r="H560" s="3"/>
       <c r="I560" s="3"/>
       <c r="J560" s="3"/>
@@ -20957,7 +20967,7 @@
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
-      <c r="G561" s="11"/>
+      <c r="G561" s="12"/>
       <c r="H561" s="3"/>
       <c r="I561" s="3"/>
       <c r="J561" s="3"/>
@@ -20985,7 +20995,7 @@
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
-      <c r="G562" s="11"/>
+      <c r="G562" s="12"/>
       <c r="H562" s="3"/>
       <c r="I562" s="3"/>
       <c r="J562" s="3"/>
@@ -21013,7 +21023,7 @@
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
-      <c r="G563" s="11"/>
+      <c r="G563" s="12"/>
       <c r="H563" s="3"/>
       <c r="I563" s="3"/>
       <c r="J563" s="3"/>
@@ -21041,7 +21051,7 @@
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
-      <c r="G564" s="11"/>
+      <c r="G564" s="12"/>
       <c r="H564" s="3"/>
       <c r="I564" s="3"/>
       <c r="J564" s="3"/>
@@ -21069,7 +21079,7 @@
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
-      <c r="G565" s="11"/>
+      <c r="G565" s="12"/>
       <c r="H565" s="3"/>
       <c r="I565" s="3"/>
       <c r="J565" s="3"/>
@@ -21097,7 +21107,7 @@
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
-      <c r="G566" s="11"/>
+      <c r="G566" s="12"/>
       <c r="H566" s="3"/>
       <c r="I566" s="3"/>
       <c r="J566" s="3"/>
@@ -21125,7 +21135,7 @@
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
-      <c r="G567" s="11"/>
+      <c r="G567" s="12"/>
       <c r="H567" s="3"/>
       <c r="I567" s="3"/>
       <c r="J567" s="3"/>
@@ -21153,7 +21163,7 @@
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
-      <c r="G568" s="11"/>
+      <c r="G568" s="12"/>
       <c r="H568" s="3"/>
       <c r="I568" s="3"/>
       <c r="J568" s="3"/>
@@ -21181,7 +21191,7 @@
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
-      <c r="G569" s="11"/>
+      <c r="G569" s="12"/>
       <c r="H569" s="3"/>
       <c r="I569" s="3"/>
       <c r="J569" s="3"/>
@@ -21209,7 +21219,7 @@
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
-      <c r="G570" s="11"/>
+      <c r="G570" s="12"/>
       <c r="H570" s="3"/>
       <c r="I570" s="3"/>
       <c r="J570" s="3"/>
@@ -21237,7 +21247,7 @@
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
-      <c r="G571" s="11"/>
+      <c r="G571" s="12"/>
       <c r="H571" s="3"/>
       <c r="I571" s="3"/>
       <c r="J571" s="3"/>
@@ -21265,7 +21275,7 @@
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
-      <c r="G572" s="11"/>
+      <c r="G572" s="12"/>
       <c r="H572" s="3"/>
       <c r="I572" s="3"/>
       <c r="J572" s="3"/>
@@ -21293,7 +21303,7 @@
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
-      <c r="G573" s="11"/>
+      <c r="G573" s="12"/>
       <c r="H573" s="3"/>
       <c r="I573" s="3"/>
       <c r="J573" s="3"/>
@@ -21321,7 +21331,7 @@
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
-      <c r="G574" s="11"/>
+      <c r="G574" s="12"/>
       <c r="H574" s="3"/>
       <c r="I574" s="3"/>
       <c r="J574" s="3"/>
@@ -21349,7 +21359,7 @@
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
-      <c r="G575" s="11"/>
+      <c r="G575" s="12"/>
       <c r="H575" s="3"/>
       <c r="I575" s="3"/>
       <c r="J575" s="3"/>
@@ -21377,7 +21387,7 @@
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
-      <c r="G576" s="11"/>
+      <c r="G576" s="12"/>
       <c r="H576" s="3"/>
       <c r="I576" s="3"/>
       <c r="J576" s="3"/>
@@ -21405,7 +21415,7 @@
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
-      <c r="G577" s="11"/>
+      <c r="G577" s="12"/>
       <c r="H577" s="3"/>
       <c r="I577" s="3"/>
       <c r="J577" s="3"/>
@@ -21433,7 +21443,7 @@
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
-      <c r="G578" s="11"/>
+      <c r="G578" s="12"/>
       <c r="H578" s="3"/>
       <c r="I578" s="3"/>
       <c r="J578" s="3"/>
@@ -21461,7 +21471,7 @@
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
-      <c r="G579" s="11"/>
+      <c r="G579" s="12"/>
       <c r="H579" s="3"/>
       <c r="I579" s="3"/>
       <c r="J579" s="3"/>
@@ -21489,7 +21499,7 @@
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
-      <c r="G580" s="11"/>
+      <c r="G580" s="12"/>
       <c r="H580" s="3"/>
       <c r="I580" s="3"/>
       <c r="J580" s="3"/>
@@ -21517,7 +21527,7 @@
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
-      <c r="G581" s="11"/>
+      <c r="G581" s="12"/>
       <c r="H581" s="3"/>
       <c r="I581" s="3"/>
       <c r="J581" s="3"/>
@@ -21545,7 +21555,7 @@
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
-      <c r="G582" s="11"/>
+      <c r="G582" s="12"/>
       <c r="H582" s="3"/>
       <c r="I582" s="3"/>
       <c r="J582" s="3"/>
@@ -21573,7 +21583,7 @@
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
-      <c r="G583" s="11"/>
+      <c r="G583" s="12"/>
       <c r="H583" s="3"/>
       <c r="I583" s="3"/>
       <c r="J583" s="3"/>
@@ -21601,7 +21611,7 @@
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
-      <c r="G584" s="11"/>
+      <c r="G584" s="12"/>
       <c r="H584" s="3"/>
       <c r="I584" s="3"/>
       <c r="J584" s="3"/>
@@ -21629,7 +21639,7 @@
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
-      <c r="G585" s="11"/>
+      <c r="G585" s="12"/>
       <c r="H585" s="3"/>
       <c r="I585" s="3"/>
       <c r="J585" s="3"/>
@@ -21657,7 +21667,7 @@
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
-      <c r="G586" s="11"/>
+      <c r="G586" s="12"/>
       <c r="H586" s="3"/>
       <c r="I586" s="3"/>
       <c r="J586" s="3"/>
@@ -21685,7 +21695,7 @@
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
-      <c r="G587" s="11"/>
+      <c r="G587" s="12"/>
       <c r="H587" s="3"/>
       <c r="I587" s="3"/>
       <c r="J587" s="3"/>
@@ -21713,7 +21723,7 @@
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
-      <c r="G588" s="11"/>
+      <c r="G588" s="12"/>
       <c r="H588" s="3"/>
       <c r="I588" s="3"/>
       <c r="J588" s="3"/>
@@ -21741,7 +21751,7 @@
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
-      <c r="G589" s="11"/>
+      <c r="G589" s="12"/>
       <c r="H589" s="3"/>
       <c r="I589" s="3"/>
       <c r="J589" s="3"/>
@@ -21769,7 +21779,7 @@
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
-      <c r="G590" s="11"/>
+      <c r="G590" s="12"/>
       <c r="H590" s="3"/>
       <c r="I590" s="3"/>
       <c r="J590" s="3"/>
@@ -21797,7 +21807,7 @@
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
-      <c r="G591" s="11"/>
+      <c r="G591" s="12"/>
       <c r="H591" s="3"/>
       <c r="I591" s="3"/>
       <c r="J591" s="3"/>
@@ -21825,7 +21835,7 @@
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
-      <c r="G592" s="11"/>
+      <c r="G592" s="12"/>
       <c r="H592" s="3"/>
       <c r="I592" s="3"/>
       <c r="J592" s="3"/>
@@ -21853,7 +21863,7 @@
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
-      <c r="G593" s="11"/>
+      <c r="G593" s="12"/>
       <c r="H593" s="3"/>
       <c r="I593" s="3"/>
       <c r="J593" s="3"/>
@@ -21881,7 +21891,7 @@
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
-      <c r="G594" s="11"/>
+      <c r="G594" s="12"/>
       <c r="H594" s="3"/>
       <c r="I594" s="3"/>
       <c r="J594" s="3"/>
@@ -21909,7 +21919,7 @@
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
-      <c r="G595" s="11"/>
+      <c r="G595" s="12"/>
       <c r="H595" s="3"/>
       <c r="I595" s="3"/>
       <c r="J595" s="3"/>
@@ -21937,7 +21947,7 @@
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
-      <c r="G596" s="11"/>
+      <c r="G596" s="12"/>
       <c r="H596" s="3"/>
       <c r="I596" s="3"/>
       <c r="J596" s="3"/>
@@ -21965,7 +21975,7 @@
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
-      <c r="G597" s="11"/>
+      <c r="G597" s="12"/>
       <c r="H597" s="3"/>
       <c r="I597" s="3"/>
       <c r="J597" s="3"/>
@@ -21993,7 +22003,7 @@
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
-      <c r="G598" s="11"/>
+      <c r="G598" s="12"/>
       <c r="H598" s="3"/>
       <c r="I598" s="3"/>
       <c r="J598" s="3"/>
@@ -22021,7 +22031,7 @@
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
-      <c r="G599" s="11"/>
+      <c r="G599" s="12"/>
       <c r="H599" s="3"/>
       <c r="I599" s="3"/>
       <c r="J599" s="3"/>
@@ -22049,7 +22059,7 @@
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
-      <c r="G600" s="11"/>
+      <c r="G600" s="12"/>
       <c r="H600" s="3"/>
       <c r="I600" s="3"/>
       <c r="J600" s="3"/>
@@ -22077,7 +22087,7 @@
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
-      <c r="G601" s="11"/>
+      <c r="G601" s="12"/>
       <c r="H601" s="3"/>
       <c r="I601" s="3"/>
       <c r="J601" s="3"/>
@@ -22105,7 +22115,7 @@
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
-      <c r="G602" s="11"/>
+      <c r="G602" s="12"/>
       <c r="H602" s="3"/>
       <c r="I602" s="3"/>
       <c r="J602" s="3"/>
@@ -22133,7 +22143,7 @@
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
-      <c r="G603" s="11"/>
+      <c r="G603" s="12"/>
       <c r="H603" s="3"/>
       <c r="I603" s="3"/>
       <c r="J603" s="3"/>
@@ -22161,7 +22171,7 @@
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
-      <c r="G604" s="11"/>
+      <c r="G604" s="12"/>
       <c r="H604" s="3"/>
       <c r="I604" s="3"/>
       <c r="J604" s="3"/>
@@ -22189,7 +22199,7 @@
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
-      <c r="G605" s="11"/>
+      <c r="G605" s="12"/>
       <c r="H605" s="3"/>
       <c r="I605" s="3"/>
       <c r="J605" s="3"/>
@@ -22217,7 +22227,7 @@
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
-      <c r="G606" s="11"/>
+      <c r="G606" s="12"/>
       <c r="H606" s="3"/>
       <c r="I606" s="3"/>
       <c r="J606" s="3"/>
@@ -22245,7 +22255,7 @@
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
-      <c r="G607" s="11"/>
+      <c r="G607" s="12"/>
       <c r="H607" s="3"/>
       <c r="I607" s="3"/>
       <c r="J607" s="3"/>
@@ -22273,7 +22283,7 @@
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
-      <c r="G608" s="11"/>
+      <c r="G608" s="12"/>
       <c r="H608" s="3"/>
       <c r="I608" s="3"/>
       <c r="J608" s="3"/>
@@ -22301,7 +22311,7 @@
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
-      <c r="G609" s="11"/>
+      <c r="G609" s="12"/>
       <c r="H609" s="3"/>
       <c r="I609" s="3"/>
       <c r="J609" s="3"/>
@@ -22329,7 +22339,7 @@
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
-      <c r="G610" s="11"/>
+      <c r="G610" s="12"/>
       <c r="H610" s="3"/>
       <c r="I610" s="3"/>
       <c r="J610" s="3"/>
@@ -22357,7 +22367,7 @@
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
-      <c r="G611" s="11"/>
+      <c r="G611" s="12"/>
       <c r="H611" s="3"/>
       <c r="I611" s="3"/>
       <c r="J611" s="3"/>
@@ -22385,7 +22395,7 @@
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
-      <c r="G612" s="11"/>
+      <c r="G612" s="12"/>
       <c r="H612" s="3"/>
       <c r="I612" s="3"/>
       <c r="J612" s="3"/>
@@ -22413,7 +22423,7 @@
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
-      <c r="G613" s="11"/>
+      <c r="G613" s="12"/>
       <c r="H613" s="3"/>
       <c r="I613" s="3"/>
       <c r="J613" s="3"/>
@@ -22441,7 +22451,7 @@
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
-      <c r="G614" s="11"/>
+      <c r="G614" s="12"/>
       <c r="H614" s="3"/>
       <c r="I614" s="3"/>
       <c r="J614" s="3"/>
@@ -22469,7 +22479,7 @@
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
-      <c r="G615" s="11"/>
+      <c r="G615" s="12"/>
       <c r="H615" s="3"/>
       <c r="I615" s="3"/>
       <c r="J615" s="3"/>
@@ -22497,7 +22507,7 @@
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
-      <c r="G616" s="11"/>
+      <c r="G616" s="12"/>
       <c r="H616" s="3"/>
       <c r="I616" s="3"/>
       <c r="J616" s="3"/>
@@ -22525,7 +22535,7 @@
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
-      <c r="G617" s="11"/>
+      <c r="G617" s="12"/>
       <c r="H617" s="3"/>
       <c r="I617" s="3"/>
       <c r="J617" s="3"/>
@@ -22553,7 +22563,7 @@
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
-      <c r="G618" s="11"/>
+      <c r="G618" s="12"/>
       <c r="H618" s="3"/>
       <c r="I618" s="3"/>
       <c r="J618" s="3"/>
@@ -22581,7 +22591,7 @@
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
-      <c r="G619" s="11"/>
+      <c r="G619" s="12"/>
       <c r="H619" s="3"/>
       <c r="I619" s="3"/>
       <c r="J619" s="3"/>
@@ -22609,7 +22619,7 @@
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
-      <c r="G620" s="11"/>
+      <c r="G620" s="12"/>
       <c r="H620" s="3"/>
       <c r="I620" s="3"/>
       <c r="J620" s="3"/>
@@ -22637,7 +22647,7 @@
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
-      <c r="G621" s="11"/>
+      <c r="G621" s="12"/>
       <c r="H621" s="3"/>
       <c r="I621" s="3"/>
       <c r="J621" s="3"/>
@@ -22665,7 +22675,7 @@
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
-      <c r="G622" s="11"/>
+      <c r="G622" s="12"/>
       <c r="H622" s="3"/>
       <c r="I622" s="3"/>
       <c r="J622" s="3"/>
@@ -22693,7 +22703,7 @@
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
-      <c r="G623" s="11"/>
+      <c r="G623" s="12"/>
       <c r="H623" s="3"/>
       <c r="I623" s="3"/>
       <c r="J623" s="3"/>
@@ -22721,7 +22731,7 @@
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
-      <c r="G624" s="11"/>
+      <c r="G624" s="12"/>
       <c r="H624" s="3"/>
       <c r="I624" s="3"/>
       <c r="J624" s="3"/>
@@ -22749,7 +22759,7 @@
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
-      <c r="G625" s="11"/>
+      <c r="G625" s="12"/>
       <c r="H625" s="3"/>
       <c r="I625" s="3"/>
       <c r="J625" s="3"/>
@@ -22777,7 +22787,7 @@
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
-      <c r="G626" s="11"/>
+      <c r="G626" s="12"/>
       <c r="H626" s="3"/>
       <c r="I626" s="3"/>
       <c r="J626" s="3"/>
@@ -22805,7 +22815,7 @@
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
-      <c r="G627" s="11"/>
+      <c r="G627" s="12"/>
       <c r="H627" s="3"/>
       <c r="I627" s="3"/>
       <c r="J627" s="3"/>
@@ -22833,7 +22843,7 @@
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
-      <c r="G628" s="11"/>
+      <c r="G628" s="12"/>
       <c r="H628" s="3"/>
       <c r="I628" s="3"/>
       <c r="J628" s="3"/>
@@ -22861,7 +22871,7 @@
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
-      <c r="G629" s="11"/>
+      <c r="G629" s="12"/>
       <c r="H629" s="3"/>
       <c r="I629" s="3"/>
       <c r="J629" s="3"/>
@@ -22889,7 +22899,7 @@
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
-      <c r="G630" s="11"/>
+      <c r="G630" s="12"/>
       <c r="H630" s="3"/>
       <c r="I630" s="3"/>
       <c r="J630" s="3"/>
@@ -22917,7 +22927,7 @@
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
-      <c r="G631" s="11"/>
+      <c r="G631" s="12"/>
       <c r="H631" s="3"/>
       <c r="I631" s="3"/>
       <c r="J631" s="3"/>
@@ -22945,7 +22955,7 @@
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
-      <c r="G632" s="11"/>
+      <c r="G632" s="12"/>
       <c r="H632" s="3"/>
       <c r="I632" s="3"/>
       <c r="J632" s="3"/>
@@ -22973,7 +22983,7 @@
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
-      <c r="G633" s="11"/>
+      <c r="G633" s="12"/>
       <c r="H633" s="3"/>
       <c r="I633" s="3"/>
       <c r="J633" s="3"/>
@@ -23001,7 +23011,7 @@
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
-      <c r="G634" s="11"/>
+      <c r="G634" s="12"/>
       <c r="H634" s="3"/>
       <c r="I634" s="3"/>
       <c r="J634" s="3"/>
@@ -23029,7 +23039,7 @@
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
-      <c r="G635" s="11"/>
+      <c r="G635" s="12"/>
       <c r="H635" s="3"/>
       <c r="I635" s="3"/>
       <c r="J635" s="3"/>
@@ -23057,7 +23067,7 @@
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
-      <c r="G636" s="11"/>
+      <c r="G636" s="12"/>
       <c r="H636" s="3"/>
       <c r="I636" s="3"/>
       <c r="J636" s="3"/>
@@ -23085,7 +23095,7 @@
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
-      <c r="G637" s="11"/>
+      <c r="G637" s="12"/>
       <c r="H637" s="3"/>
       <c r="I637" s="3"/>
       <c r="J637" s="3"/>
@@ -23113,7 +23123,7 @@
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
-      <c r="G638" s="11"/>
+      <c r="G638" s="12"/>
       <c r="H638" s="3"/>
       <c r="I638" s="3"/>
       <c r="J638" s="3"/>
@@ -23141,7 +23151,7 @@
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
-      <c r="G639" s="11"/>
+      <c r="G639" s="12"/>
       <c r="H639" s="3"/>
       <c r="I639" s="3"/>
       <c r="J639" s="3"/>
@@ -23169,7 +23179,7 @@
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
-      <c r="G640" s="11"/>
+      <c r="G640" s="12"/>
       <c r="H640" s="3"/>
       <c r="I640" s="3"/>
       <c r="J640" s="3"/>
@@ -23197,7 +23207,7 @@
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
-      <c r="G641" s="11"/>
+      <c r="G641" s="12"/>
       <c r="H641" s="3"/>
       <c r="I641" s="3"/>
       <c r="J641" s="3"/>
@@ -23225,7 +23235,7 @@
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
-      <c r="G642" s="11"/>
+      <c r="G642" s="12"/>
       <c r="H642" s="3"/>
       <c r="I642" s="3"/>
       <c r="J642" s="3"/>
@@ -23253,7 +23263,7 @@
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
-      <c r="G643" s="11"/>
+      <c r="G643" s="12"/>
       <c r="H643" s="3"/>
       <c r="I643" s="3"/>
       <c r="J643" s="3"/>
@@ -23281,7 +23291,7 @@
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
-      <c r="G644" s="11"/>
+      <c r="G644" s="12"/>
       <c r="H644" s="3"/>
       <c r="I644" s="3"/>
       <c r="J644" s="3"/>
@@ -23309,7 +23319,7 @@
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
-      <c r="G645" s="11"/>
+      <c r="G645" s="12"/>
       <c r="H645" s="3"/>
       <c r="I645" s="3"/>
       <c r="J645" s="3"/>
@@ -23337,7 +23347,7 @@
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
-      <c r="G646" s="11"/>
+      <c r="G646" s="12"/>
       <c r="H646" s="3"/>
       <c r="I646" s="3"/>
       <c r="J646" s="3"/>
@@ -23365,7 +23375,7 @@
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
-      <c r="G647" s="11"/>
+      <c r="G647" s="12"/>
       <c r="H647" s="3"/>
       <c r="I647" s="3"/>
       <c r="J647" s="3"/>
@@ -23393,7 +23403,7 @@
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
-      <c r="G648" s="11"/>
+      <c r="G648" s="12"/>
       <c r="H648" s="3"/>
       <c r="I648" s="3"/>
       <c r="J648" s="3"/>
@@ -23421,7 +23431,7 @@
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
-      <c r="G649" s="11"/>
+      <c r="G649" s="12"/>
       <c r="H649" s="3"/>
       <c r="I649" s="3"/>
       <c r="J649" s="3"/>
@@ -23449,7 +23459,7 @@
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
-      <c r="G650" s="11"/>
+      <c r="G650" s="12"/>
       <c r="H650" s="3"/>
       <c r="I650" s="3"/>
       <c r="J650" s="3"/>
@@ -23477,7 +23487,7 @@
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
-      <c r="G651" s="11"/>
+      <c r="G651" s="12"/>
       <c r="H651" s="3"/>
       <c r="I651" s="3"/>
       <c r="J651" s="3"/>
@@ -23505,7 +23515,7 @@
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
-      <c r="G652" s="11"/>
+      <c r="G652" s="12"/>
       <c r="H652" s="3"/>
       <c r="I652" s="3"/>
       <c r="J652" s="3"/>
@@ -23533,7 +23543,7 @@
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
-      <c r="G653" s="11"/>
+      <c r="G653" s="12"/>
       <c r="H653" s="3"/>
       <c r="I653" s="3"/>
       <c r="J653" s="3"/>
@@ -23561,7 +23571,7 @@
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
-      <c r="G654" s="11"/>
+      <c r="G654" s="12"/>
       <c r="H654" s="3"/>
       <c r="I654" s="3"/>
       <c r="J654" s="3"/>
@@ -23589,7 +23599,7 @@
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
-      <c r="G655" s="11"/>
+      <c r="G655" s="12"/>
       <c r="H655" s="3"/>
       <c r="I655" s="3"/>
       <c r="J655" s="3"/>
@@ -23617,7 +23627,7 @@
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
-      <c r="G656" s="11"/>
+      <c r="G656" s="12"/>
       <c r="H656" s="3"/>
       <c r="I656" s="3"/>
       <c r="J656" s="3"/>
@@ -23645,7 +23655,7 @@
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
-      <c r="G657" s="11"/>
+      <c r="G657" s="12"/>
       <c r="H657" s="3"/>
       <c r="I657" s="3"/>
       <c r="J657" s="3"/>
@@ -23673,7 +23683,7 @@
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
-      <c r="G658" s="11"/>
+      <c r="G658" s="12"/>
       <c r="H658" s="3"/>
       <c r="I658" s="3"/>
       <c r="J658" s="3"/>
@@ -23701,7 +23711,7 @@
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
-      <c r="G659" s="11"/>
+      <c r="G659" s="12"/>
       <c r="H659" s="3"/>
       <c r="I659" s="3"/>
       <c r="J659" s="3"/>
@@ -23729,7 +23739,7 @@
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
-      <c r="G660" s="11"/>
+      <c r="G660" s="12"/>
       <c r="H660" s="3"/>
       <c r="I660" s="3"/>
       <c r="J660" s="3"/>
@@ -23757,7 +23767,7 @@
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
-      <c r="G661" s="11"/>
+      <c r="G661" s="12"/>
       <c r="H661" s="3"/>
       <c r="I661" s="3"/>
       <c r="J661" s="3"/>
@@ -23785,7 +23795,7 @@
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
-      <c r="G662" s="11"/>
+      <c r="G662" s="12"/>
       <c r="H662" s="3"/>
       <c r="I662" s="3"/>
       <c r="J662" s="3"/>
@@ -23813,7 +23823,7 @@
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
-      <c r="G663" s="11"/>
+      <c r="G663" s="12"/>
       <c r="H663" s="3"/>
       <c r="I663" s="3"/>
       <c r="J663" s="3"/>
@@ -23841,7 +23851,7 @@
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
-      <c r="G664" s="11"/>
+      <c r="G664" s="12"/>
       <c r="H664" s="3"/>
       <c r="I664" s="3"/>
       <c r="J664" s="3"/>
@@ -23869,7 +23879,7 @@
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
-      <c r="G665" s="11"/>
+      <c r="G665" s="12"/>
       <c r="H665" s="3"/>
       <c r="I665" s="3"/>
       <c r="J665" s="3"/>
@@ -23897,7 +23907,7 @@
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
-      <c r="G666" s="11"/>
+      <c r="G666" s="12"/>
       <c r="H666" s="3"/>
       <c r="I666" s="3"/>
       <c r="J666" s="3"/>
@@ -23925,7 +23935,7 @@
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
-      <c r="G667" s="11"/>
+      <c r="G667" s="12"/>
       <c r="H667" s="3"/>
       <c r="I667" s="3"/>
       <c r="J667" s="3"/>
@@ -23953,7 +23963,7 @@
       <c r="D668" s="3"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
-      <c r="G668" s="11"/>
+      <c r="G668" s="12"/>
       <c r="H668" s="3"/>
       <c r="I668" s="3"/>
       <c r="J668" s="3"/>
@@ -23981,7 +23991,7 @@
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
-      <c r="G669" s="11"/>
+      <c r="G669" s="12"/>
       <c r="H669" s="3"/>
       <c r="I669" s="3"/>
       <c r="J669" s="3"/>
@@ -24009,7 +24019,7 @@
       <c r="D670" s="3"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
-      <c r="G670" s="11"/>
+      <c r="G670" s="12"/>
       <c r="H670" s="3"/>
       <c r="I670" s="3"/>
       <c r="J670" s="3"/>
@@ -24037,7 +24047,7 @@
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
-      <c r="G671" s="11"/>
+      <c r="G671" s="12"/>
       <c r="H671" s="3"/>
       <c r="I671" s="3"/>
       <c r="J671" s="3"/>
@@ -24065,7 +24075,7 @@
       <c r="D672" s="3"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
-      <c r="G672" s="11"/>
+      <c r="G672" s="12"/>
       <c r="H672" s="3"/>
       <c r="I672" s="3"/>
       <c r="J672" s="3"/>
@@ -24093,7 +24103,7 @@
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
-      <c r="G673" s="11"/>
+      <c r="G673" s="12"/>
       <c r="H673" s="3"/>
       <c r="I673" s="3"/>
       <c r="J673" s="3"/>
@@ -24121,7 +24131,7 @@
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
-      <c r="G674" s="11"/>
+      <c r="G674" s="12"/>
       <c r="H674" s="3"/>
       <c r="I674" s="3"/>
       <c r="J674" s="3"/>
@@ -24149,7 +24159,7 @@
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
-      <c r="G675" s="11"/>
+      <c r="G675" s="12"/>
       <c r="H675" s="3"/>
       <c r="I675" s="3"/>
       <c r="J675" s="3"/>
@@ -24177,7 +24187,7 @@
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
-      <c r="G676" s="11"/>
+      <c r="G676" s="12"/>
       <c r="H676" s="3"/>
       <c r="I676" s="3"/>
       <c r="J676" s="3"/>
@@ -24205,7 +24215,7 @@
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
-      <c r="G677" s="11"/>
+      <c r="G677" s="12"/>
       <c r="H677" s="3"/>
       <c r="I677" s="3"/>
       <c r="J677" s="3"/>
@@ -24233,7 +24243,7 @@
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
-      <c r="G678" s="11"/>
+      <c r="G678" s="12"/>
       <c r="H678" s="3"/>
       <c r="I678" s="3"/>
       <c r="J678" s="3"/>
@@ -24261,7 +24271,7 @@
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
-      <c r="G679" s="11"/>
+      <c r="G679" s="12"/>
       <c r="H679" s="3"/>
       <c r="I679" s="3"/>
       <c r="J679" s="3"/>
@@ -24289,7 +24299,7 @@
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
-      <c r="G680" s="11"/>
+      <c r="G680" s="12"/>
       <c r="H680" s="3"/>
       <c r="I680" s="3"/>
       <c r="J680" s="3"/>
@@ -24317,7 +24327,7 @@
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
-      <c r="G681" s="11"/>
+      <c r="G681" s="12"/>
       <c r="H681" s="3"/>
       <c r="I681" s="3"/>
       <c r="J681" s="3"/>
@@ -24345,7 +24355,7 @@
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
-      <c r="G682" s="11"/>
+      <c r="G682" s="12"/>
       <c r="H682" s="3"/>
       <c r="I682" s="3"/>
       <c r="J682" s="3"/>
@@ -24373,7 +24383,7 @@
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
-      <c r="G683" s="11"/>
+      <c r="G683" s="12"/>
       <c r="H683" s="3"/>
       <c r="I683" s="3"/>
       <c r="J683" s="3"/>
@@ -24401,7 +24411,7 @@
       <c r="D684" s="3"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
-      <c r="G684" s="11"/>
+      <c r="G684" s="12"/>
       <c r="H684" s="3"/>
       <c r="I684" s="3"/>
       <c r="J684" s="3"/>
@@ -24429,7 +24439,7 @@
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
-      <c r="G685" s="11"/>
+      <c r="G685" s="12"/>
       <c r="H685" s="3"/>
       <c r="I685" s="3"/>
       <c r="J685" s="3"/>
@@ -24457,7 +24467,7 @@
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
-      <c r="G686" s="11"/>
+      <c r="G686" s="12"/>
       <c r="H686" s="3"/>
       <c r="I686" s="3"/>
       <c r="J686" s="3"/>
@@ -24485,7 +24495,7 @@
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
-      <c r="G687" s="11"/>
+      <c r="G687" s="12"/>
       <c r="H687" s="3"/>
       <c r="I687" s="3"/>
       <c r="J687" s="3"/>
@@ -24513,7 +24523,7 @@
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
-      <c r="G688" s="11"/>
+      <c r="G688" s="12"/>
       <c r="H688" s="3"/>
       <c r="I688" s="3"/>
       <c r="J688" s="3"/>
@@ -24541,7 +24551,7 @@
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
-      <c r="G689" s="11"/>
+      <c r="G689" s="12"/>
       <c r="H689" s="3"/>
       <c r="I689" s="3"/>
       <c r="J689" s="3"/>
@@ -24569,7 +24579,7 @@
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
-      <c r="G690" s="11"/>
+      <c r="G690" s="12"/>
       <c r="H690" s="3"/>
       <c r="I690" s="3"/>
       <c r="J690" s="3"/>
@@ -24597,7 +24607,7 @@
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
-      <c r="G691" s="11"/>
+      <c r="G691" s="12"/>
       <c r="H691" s="3"/>
       <c r="I691" s="3"/>
       <c r="J691" s="3"/>
@@ -24625,7 +24635,7 @@
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
-      <c r="G692" s="11"/>
+      <c r="G692" s="12"/>
       <c r="H692" s="3"/>
       <c r="I692" s="3"/>
       <c r="J692" s="3"/>
@@ -24653,7 +24663,7 @@
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
-      <c r="G693" s="11"/>
+      <c r="G693" s="12"/>
       <c r="H693" s="3"/>
       <c r="I693" s="3"/>
       <c r="J693" s="3"/>
@@ -24681,7 +24691,7 @@
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
-      <c r="G694" s="11"/>
+      <c r="G694" s="12"/>
       <c r="H694" s="3"/>
       <c r="I694" s="3"/>
       <c r="J694" s="3"/>
@@ -24709,7 +24719,7 @@
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
-      <c r="G695" s="11"/>
+      <c r="G695" s="12"/>
       <c r="H695" s="3"/>
       <c r="I695" s="3"/>
       <c r="J695" s="3"/>
@@ -24737,7 +24747,7 @@
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
-      <c r="G696" s="11"/>
+      <c r="G696" s="12"/>
       <c r="H696" s="3"/>
       <c r="I696" s="3"/>
       <c r="J696" s="3"/>
@@ -24765,7 +24775,7 @@
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
-      <c r="G697" s="11"/>
+      <c r="G697" s="12"/>
       <c r="H697" s="3"/>
       <c r="I697" s="3"/>
       <c r="J697" s="3"/>
@@ -24793,7 +24803,7 @@
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
-      <c r="G698" s="11"/>
+      <c r="G698" s="12"/>
       <c r="H698" s="3"/>
       <c r="I698" s="3"/>
       <c r="J698" s="3"/>
@@ -24821,7 +24831,7 @@
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
-      <c r="G699" s="11"/>
+      <c r="G699" s="12"/>
       <c r="H699" s="3"/>
       <c r="I699" s="3"/>
       <c r="J699" s="3"/>
@@ -24849,7 +24859,7 @@
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
-      <c r="G700" s="11"/>
+      <c r="G700" s="12"/>
       <c r="H700" s="3"/>
       <c r="I700" s="3"/>
       <c r="J700" s="3"/>
@@ -24877,7 +24887,7 @@
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
-      <c r="G701" s="11"/>
+      <c r="G701" s="12"/>
       <c r="H701" s="3"/>
       <c r="I701" s="3"/>
       <c r="J701" s="3"/>
@@ -24905,7 +24915,7 @@
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
-      <c r="G702" s="11"/>
+      <c r="G702" s="12"/>
       <c r="H702" s="3"/>
       <c r="I702" s="3"/>
       <c r="J702" s="3"/>
@@ -24933,7 +24943,7 @@
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
-      <c r="G703" s="11"/>
+      <c r="G703" s="12"/>
       <c r="H703" s="3"/>
       <c r="I703" s="3"/>
       <c r="J703" s="3"/>
@@ -24961,7 +24971,7 @@
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
-      <c r="G704" s="11"/>
+      <c r="G704" s="12"/>
       <c r="H704" s="3"/>
       <c r="I704" s="3"/>
       <c r="J704" s="3"/>
@@ -24989,7 +24999,7 @@
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
-      <c r="G705" s="11"/>
+      <c r="G705" s="12"/>
       <c r="H705" s="3"/>
       <c r="I705" s="3"/>
       <c r="J705" s="3"/>
@@ -25017,7 +25027,7 @@
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
-      <c r="G706" s="11"/>
+      <c r="G706" s="12"/>
       <c r="H706" s="3"/>
       <c r="I706" s="3"/>
       <c r="J706" s="3"/>
@@ -25045,7 +25055,7 @@
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
-      <c r="G707" s="11"/>
+      <c r="G707" s="12"/>
       <c r="H707" s="3"/>
       <c r="I707" s="3"/>
       <c r="J707" s="3"/>
@@ -25073,7 +25083,7 @@
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
-      <c r="G708" s="11"/>
+      <c r="G708" s="12"/>
       <c r="H708" s="3"/>
       <c r="I708" s="3"/>
       <c r="J708" s="3"/>
@@ -25101,7 +25111,7 @@
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
-      <c r="G709" s="11"/>
+      <c r="G709" s="12"/>
       <c r="H709" s="3"/>
       <c r="I709" s="3"/>
       <c r="J709" s="3"/>
@@ -25129,7 +25139,7 @@
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
-      <c r="G710" s="11"/>
+      <c r="G710" s="12"/>
       <c r="H710" s="3"/>
       <c r="I710" s="3"/>
       <c r="J710" s="3"/>
@@ -25157,7 +25167,7 @@
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
-      <c r="G711" s="11"/>
+      <c r="G711" s="12"/>
       <c r="H711" s="3"/>
       <c r="I711" s="3"/>
       <c r="J711" s="3"/>
@@ -25185,7 +25195,7 @@
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
-      <c r="G712" s="11"/>
+      <c r="G712" s="12"/>
       <c r="H712" s="3"/>
       <c r="I712" s="3"/>
       <c r="J712" s="3"/>
@@ -25213,7 +25223,7 @@
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
-      <c r="G713" s="11"/>
+      <c r="G713" s="12"/>
       <c r="H713" s="3"/>
       <c r="I713" s="3"/>
       <c r="J713" s="3"/>
@@ -25241,7 +25251,7 @@
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
-      <c r="G714" s="11"/>
+      <c r="G714" s="12"/>
       <c r="H714" s="3"/>
       <c r="I714" s="3"/>
       <c r="J714" s="3"/>
@@ -25269,7 +25279,7 @@
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
-      <c r="G715" s="11"/>
+      <c r="G715" s="12"/>
       <c r="H715" s="3"/>
       <c r="I715" s="3"/>
       <c r="J715" s="3"/>
@@ -25297,7 +25307,7 @@
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
-      <c r="G716" s="11"/>
+      <c r="G716" s="12"/>
       <c r="H716" s="3"/>
       <c r="I716" s="3"/>
       <c r="J716" s="3"/>
@@ -25325,7 +25335,7 @@
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
-      <c r="G717" s="11"/>
+      <c r="G717" s="12"/>
       <c r="H717" s="3"/>
       <c r="I717" s="3"/>
       <c r="J717" s="3"/>
@@ -25353,7 +25363,7 @@
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
-      <c r="G718" s="11"/>
+      <c r="G718" s="12"/>
       <c r="H718" s="3"/>
       <c r="I718" s="3"/>
       <c r="J718" s="3"/>
@@ -25381,7 +25391,7 @@
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
-      <c r="G719" s="11"/>
+      <c r="G719" s="12"/>
       <c r="H719" s="3"/>
       <c r="I719" s="3"/>
       <c r="J719" s="3"/>
@@ -25409,7 +25419,7 @@
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
-      <c r="G720" s="11"/>
+      <c r="G720" s="12"/>
       <c r="H720" s="3"/>
       <c r="I720" s="3"/>
       <c r="J720" s="3"/>
@@ -25437,7 +25447,7 @@
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
-      <c r="G721" s="11"/>
+      <c r="G721" s="12"/>
       <c r="H721" s="3"/>
       <c r="I721" s="3"/>
       <c r="J721" s="3"/>
@@ -25465,7 +25475,7 @@
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
-      <c r="G722" s="11"/>
+      <c r="G722" s="12"/>
       <c r="H722" s="3"/>
       <c r="I722" s="3"/>
       <c r="J722" s="3"/>
@@ -25493,7 +25503,7 @@
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
-      <c r="G723" s="11"/>
+      <c r="G723" s="12"/>
       <c r="H723" s="3"/>
       <c r="I723" s="3"/>
       <c r="J723" s="3"/>
@@ -25521,7 +25531,7 @@
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
-      <c r="G724" s="11"/>
+      <c r="G724" s="12"/>
       <c r="H724" s="3"/>
       <c r="I724" s="3"/>
       <c r="J724" s="3"/>
@@ -25549,7 +25559,7 @@
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
-      <c r="G725" s="11"/>
+      <c r="G725" s="12"/>
       <c r="H725" s="3"/>
       <c r="I725" s="3"/>
       <c r="J725" s="3"/>
@@ -25577,7 +25587,7 @@
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
-      <c r="G726" s="11"/>
+      <c r="G726" s="12"/>
       <c r="H726" s="3"/>
       <c r="I726" s="3"/>
       <c r="J726" s="3"/>
@@ -25605,7 +25615,7 @@
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
-      <c r="G727" s="11"/>
+      <c r="G727" s="12"/>
       <c r="H727" s="3"/>
       <c r="I727" s="3"/>
       <c r="J727" s="3"/>
@@ -25633,7 +25643,7 @@
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
-      <c r="G728" s="11"/>
+      <c r="G728" s="12"/>
       <c r="H728" s="3"/>
       <c r="I728" s="3"/>
       <c r="J728" s="3"/>
@@ -25661,7 +25671,7 @@
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
-      <c r="G729" s="11"/>
+      <c r="G729" s="12"/>
       <c r="H729" s="3"/>
       <c r="I729" s="3"/>
       <c r="J729" s="3"/>
@@ -25689,7 +25699,7 @@
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
-      <c r="G730" s="11"/>
+      <c r="G730" s="12"/>
       <c r="H730" s="3"/>
       <c r="I730" s="3"/>
       <c r="J730" s="3"/>
@@ -25717,7 +25727,7 @@
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
-      <c r="G731" s="11"/>
+      <c r="G731" s="12"/>
       <c r="H731" s="3"/>
       <c r="I731" s="3"/>
       <c r="J731" s="3"/>
@@ -25745,7 +25755,7 @@
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
-      <c r="G732" s="11"/>
+      <c r="G732" s="12"/>
       <c r="H732" s="3"/>
       <c r="I732" s="3"/>
       <c r="J732" s="3"/>
@@ -25773,7 +25783,7 @@
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
-      <c r="G733" s="11"/>
+      <c r="G733" s="12"/>
       <c r="H733" s="3"/>
       <c r="I733" s="3"/>
       <c r="J733" s="3"/>
@@ -25801,7 +25811,7 @@
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
-      <c r="G734" s="11"/>
+      <c r="G734" s="12"/>
       <c r="H734" s="3"/>
       <c r="I734" s="3"/>
       <c r="J734" s="3"/>
@@ -25829,7 +25839,7 @@
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
-      <c r="G735" s="11"/>
+      <c r="G735" s="12"/>
       <c r="H735" s="3"/>
       <c r="I735" s="3"/>
       <c r="J735" s="3"/>
@@ -25857,7 +25867,7 @@
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
-      <c r="G736" s="11"/>
+      <c r="G736" s="12"/>
       <c r="H736" s="3"/>
       <c r="I736" s="3"/>
       <c r="J736" s="3"/>
@@ -25885,7 +25895,7 @@
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
-      <c r="G737" s="11"/>
+      <c r="G737" s="12"/>
       <c r="H737" s="3"/>
       <c r="I737" s="3"/>
       <c r="J737" s="3"/>
@@ -25913,7 +25923,7 @@
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
-      <c r="G738" s="11"/>
+      <c r="G738" s="12"/>
       <c r="H738" s="3"/>
       <c r="I738" s="3"/>
       <c r="J738" s="3"/>
@@ -25941,7 +25951,7 @@
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
-      <c r="G739" s="11"/>
+      <c r="G739" s="12"/>
       <c r="H739" s="3"/>
       <c r="I739" s="3"/>
       <c r="J739" s="3"/>
@@ -25969,7 +25979,7 @@
       <c r="D740" s="3"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
-      <c r="G740" s="11"/>
+      <c r="G740" s="12"/>
       <c r="H740" s="3"/>
       <c r="I740" s="3"/>
       <c r="J740" s="3"/>
@@ -25997,7 +26007,7 @@
       <c r="D741" s="3"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
-      <c r="G741" s="11"/>
+      <c r="G741" s="12"/>
       <c r="H741" s="3"/>
       <c r="I741" s="3"/>
       <c r="J741" s="3"/>
@@ -26025,7 +26035,7 @@
       <c r="D742" s="3"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
-      <c r="G742" s="11"/>
+      <c r="G742" s="12"/>
       <c r="H742" s="3"/>
       <c r="I742" s="3"/>
       <c r="J742" s="3"/>
@@ -26053,7 +26063,7 @@
       <c r="D743" s="3"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
-      <c r="G743" s="11"/>
+      <c r="G743" s="12"/>
       <c r="H743" s="3"/>
       <c r="I743" s="3"/>
       <c r="J743" s="3"/>
@@ -26081,7 +26091,7 @@
       <c r="D744" s="3"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
-      <c r="G744" s="11"/>
+      <c r="G744" s="12"/>
       <c r="H744" s="3"/>
       <c r="I744" s="3"/>
       <c r="J744" s="3"/>
@@ -26109,7 +26119,7 @@
       <c r="D745" s="3"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
-      <c r="G745" s="11"/>
+      <c r="G745" s="12"/>
       <c r="H745" s="3"/>
       <c r="I745" s="3"/>
       <c r="J745" s="3"/>
@@ -26137,7 +26147,7 @@
       <c r="D746" s="3"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
-      <c r="G746" s="11"/>
+      <c r="G746" s="12"/>
       <c r="H746" s="3"/>
       <c r="I746" s="3"/>
       <c r="J746" s="3"/>
@@ -26165,7 +26175,7 @@
       <c r="D747" s="3"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
-      <c r="G747" s="11"/>
+      <c r="G747" s="12"/>
       <c r="H747" s="3"/>
       <c r="I747" s="3"/>
       <c r="J747" s="3"/>
@@ -26193,7 +26203,7 @@
       <c r="D748" s="3"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
-      <c r="G748" s="11"/>
+      <c r="G748" s="12"/>
       <c r="H748" s="3"/>
       <c r="I748" s="3"/>
       <c r="J748" s="3"/>
@@ -26221,7 +26231,7 @@
       <c r="D749" s="3"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
-      <c r="G749" s="11"/>
+      <c r="G749" s="12"/>
       <c r="H749" s="3"/>
       <c r="I749" s="3"/>
       <c r="J749" s="3"/>
@@ -26249,7 +26259,7 @@
       <c r="D750" s="3"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
-      <c r="G750" s="11"/>
+      <c r="G750" s="12"/>
       <c r="H750" s="3"/>
       <c r="I750" s="3"/>
       <c r="J750" s="3"/>
@@ -26277,7 +26287,7 @@
       <c r="D751" s="3"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
-      <c r="G751" s="11"/>
+      <c r="G751" s="12"/>
       <c r="H751" s="3"/>
       <c r="I751" s="3"/>
       <c r="J751" s="3"/>
@@ -26305,7 +26315,7 @@
       <c r="D752" s="3"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
-      <c r="G752" s="11"/>
+      <c r="G752" s="12"/>
       <c r="H752" s="3"/>
       <c r="I752" s="3"/>
       <c r="J752" s="3"/>
@@ -26333,7 +26343,7 @@
       <c r="D753" s="3"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
-      <c r="G753" s="11"/>
+      <c r="G753" s="12"/>
       <c r="H753" s="3"/>
       <c r="I753" s="3"/>
       <c r="J753" s="3"/>
@@ -26361,7 +26371,7 @@
       <c r="D754" s="3"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
-      <c r="G754" s="11"/>
+      <c r="G754" s="12"/>
       <c r="H754" s="3"/>
       <c r="I754" s="3"/>
       <c r="J754" s="3"/>
@@ -26389,7 +26399,7 @@
       <c r="D755" s="3"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
-      <c r="G755" s="11"/>
+      <c r="G755" s="12"/>
       <c r="H755" s="3"/>
       <c r="I755" s="3"/>
       <c r="J755" s="3"/>
@@ -26417,7 +26427,7 @@
       <c r="D756" s="3"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
-      <c r="G756" s="11"/>
+      <c r="G756" s="12"/>
       <c r="H756" s="3"/>
       <c r="I756" s="3"/>
       <c r="J756" s="3"/>
@@ -26445,7 +26455,7 @@
       <c r="D757" s="3"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
-      <c r="G757" s="11"/>
+      <c r="G757" s="12"/>
       <c r="H757" s="3"/>
       <c r="I757" s="3"/>
       <c r="J757" s="3"/>
@@ -26473,7 +26483,7 @@
       <c r="D758" s="3"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
-      <c r="G758" s="11"/>
+      <c r="G758" s="12"/>
       <c r="H758" s="3"/>
       <c r="I758" s="3"/>
       <c r="J758" s="3"/>
@@ -26501,7 +26511,7 @@
       <c r="D759" s="3"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
-      <c r="G759" s="11"/>
+      <c r="G759" s="12"/>
       <c r="H759" s="3"/>
       <c r="I759" s="3"/>
       <c r="J759" s="3"/>
@@ -26529,7 +26539,7 @@
       <c r="D760" s="3"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
-      <c r="G760" s="11"/>
+      <c r="G760" s="12"/>
       <c r="H760" s="3"/>
       <c r="I760" s="3"/>
       <c r="J760" s="3"/>
@@ -26557,7 +26567,7 @@
       <c r="D761" s="3"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
-      <c r="G761" s="11"/>
+      <c r="G761" s="12"/>
       <c r="H761" s="3"/>
       <c r="I761" s="3"/>
       <c r="J761" s="3"/>
@@ -26585,7 +26595,7 @@
       <c r="D762" s="3"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
-      <c r="G762" s="11"/>
+      <c r="G762" s="12"/>
       <c r="H762" s="3"/>
       <c r="I762" s="3"/>
       <c r="J762" s="3"/>
@@ -26613,7 +26623,7 @@
       <c r="D763" s="3"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
-      <c r="G763" s="11"/>
+      <c r="G763" s="12"/>
       <c r="H763" s="3"/>
       <c r="I763" s="3"/>
       <c r="J763" s="3"/>
@@ -26641,7 +26651,7 @@
       <c r="D764" s="3"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
-      <c r="G764" s="11"/>
+      <c r="G764" s="12"/>
       <c r="H764" s="3"/>
       <c r="I764" s="3"/>
       <c r="J764" s="3"/>
@@ -26669,7 +26679,7 @@
       <c r="D765" s="3"/>
       <c r="E765" s="3"/>
       <c r="F765" s="3"/>
-      <c r="G765" s="11"/>
+      <c r="G765" s="12"/>
       <c r="H765" s="3"/>
       <c r="I765" s="3"/>
       <c r="J765" s="3"/>
@@ -26697,7 +26707,7 @@
       <c r="D766" s="3"/>
       <c r="E766" s="3"/>
       <c r="F766" s="3"/>
-      <c r="G766" s="11"/>
+      <c r="G766" s="12"/>
       <c r="H766" s="3"/>
       <c r="I766" s="3"/>
       <c r="J766" s="3"/>
@@ -26725,7 +26735,7 @@
       <c r="D767" s="3"/>
       <c r="E767" s="3"/>
       <c r="F767" s="3"/>
-      <c r="G767" s="11"/>
+      <c r="G767" s="12"/>
       <c r="H767" s="3"/>
       <c r="I767" s="3"/>
       <c r="J767" s="3"/>
@@ -26753,7 +26763,7 @@
       <c r="D768" s="3"/>
       <c r="E768" s="3"/>
       <c r="F768" s="3"/>
-      <c r="G768" s="11"/>
+      <c r="G768" s="12"/>
       <c r="H768" s="3"/>
       <c r="I768" s="3"/>
       <c r="J768" s="3"/>
@@ -26781,7 +26791,7 @@
       <c r="D769" s="3"/>
       <c r="E769" s="3"/>
       <c r="F769" s="3"/>
-      <c r="G769" s="11"/>
+      <c r="G769" s="12"/>
       <c r="H769" s="3"/>
       <c r="I769" s="3"/>
       <c r="J769" s="3"/>
@@ -26809,7 +26819,7 @@
       <c r="D770" s="3"/>
       <c r="E770" s="3"/>
       <c r="F770" s="3"/>
-      <c r="G770" s="11"/>
+      <c r="G770" s="12"/>
       <c r="H770" s="3"/>
       <c r="I770" s="3"/>
       <c r="J770" s="3"/>
@@ -26837,7 +26847,7 @@
       <c r="D771" s="3"/>
       <c r="E771" s="3"/>
       <c r="F771" s="3"/>
-      <c r="G771" s="11"/>
+      <c r="G771" s="12"/>
       <c r="H771" s="3"/>
       <c r="I771" s="3"/>
       <c r="J771" s="3"/>
@@ -26865,7 +26875,7 @@
       <c r="D772" s="3"/>
       <c r="E772" s="3"/>
       <c r="F772" s="3"/>
-      <c r="G772" s="11"/>
+      <c r="G772" s="12"/>
       <c r="H772" s="3"/>
       <c r="I772" s="3"/>
       <c r="J772" s="3"/>
@@ -26893,7 +26903,7 @@
       <c r="D773" s="3"/>
       <c r="E773" s="3"/>
       <c r="F773" s="3"/>
-      <c r="G773" s="11"/>
+      <c r="G773" s="12"/>
       <c r="H773" s="3"/>
       <c r="I773" s="3"/>
       <c r="J773" s="3"/>
@@ -26921,7 +26931,7 @@
       <c r="D774" s="3"/>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
-      <c r="G774" s="11"/>
+      <c r="G774" s="12"/>
       <c r="H774" s="3"/>
       <c r="I774" s="3"/>
       <c r="J774" s="3"/>
@@ -26949,7 +26959,7 @@
       <c r="D775" s="3"/>
       <c r="E775" s="3"/>
       <c r="F775" s="3"/>
-      <c r="G775" s="11"/>
+      <c r="G775" s="12"/>
       <c r="H775" s="3"/>
       <c r="I775" s="3"/>
       <c r="J775" s="3"/>
@@ -26977,7 +26987,7 @@
       <c r="D776" s="3"/>
       <c r="E776" s="3"/>
       <c r="F776" s="3"/>
-      <c r="G776" s="11"/>
+      <c r="G776" s="12"/>
       <c r="H776" s="3"/>
       <c r="I776" s="3"/>
       <c r="J776" s="3"/>
@@ -27005,7 +27015,7 @@
       <c r="D777" s="3"/>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
-      <c r="G777" s="11"/>
+      <c r="G777" s="12"/>
       <c r="H777" s="3"/>
       <c r="I777" s="3"/>
       <c r="J777" s="3"/>
@@ -27033,7 +27043,7 @@
       <c r="D778" s="3"/>
       <c r="E778" s="3"/>
       <c r="F778" s="3"/>
-      <c r="G778" s="11"/>
+      <c r="G778" s="12"/>
       <c r="H778" s="3"/>
       <c r="I778" s="3"/>
       <c r="J778" s="3"/>
@@ -27061,7 +27071,7 @@
       <c r="D779" s="3"/>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
-      <c r="G779" s="11"/>
+      <c r="G779" s="12"/>
       <c r="H779" s="3"/>
       <c r="I779" s="3"/>
       <c r="J779" s="3"/>
@@ -27089,7 +27099,7 @@
       <c r="D780" s="3"/>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
-      <c r="G780" s="11"/>
+      <c r="G780" s="12"/>
       <c r="H780" s="3"/>
       <c r="I780" s="3"/>
       <c r="J780" s="3"/>
@@ -27117,7 +27127,7 @@
       <c r="D781" s="3"/>
       <c r="E781" s="3"/>
       <c r="F781" s="3"/>
-      <c r="G781" s="11"/>
+      <c r="G781" s="12"/>
       <c r="H781" s="3"/>
       <c r="I781" s="3"/>
       <c r="J781" s="3"/>
@@ -27145,7 +27155,7 @@
       <c r="D782" s="3"/>
       <c r="E782" s="3"/>
       <c r="F782" s="3"/>
-      <c r="G782" s="11"/>
+      <c r="G782" s="12"/>
       <c r="H782" s="3"/>
       <c r="I782" s="3"/>
       <c r="J782" s="3"/>
@@ -27173,7 +27183,7 @@
       <c r="D783" s="3"/>
       <c r="E783" s="3"/>
       <c r="F783" s="3"/>
-      <c r="G783" s="11"/>
+      <c r="G783" s="12"/>
       <c r="H783" s="3"/>
       <c r="I783" s="3"/>
       <c r="J783" s="3"/>
@@ -27201,7 +27211,7 @@
       <c r="D784" s="3"/>
       <c r="E784" s="3"/>
       <c r="F784" s="3"/>
-      <c r="G784" s="11"/>
+      <c r="G784" s="12"/>
       <c r="H784" s="3"/>
       <c r="I784" s="3"/>
       <c r="J784" s="3"/>
@@ -27229,7 +27239,7 @@
       <c r="D785" s="3"/>
       <c r="E785" s="3"/>
       <c r="F785" s="3"/>
-      <c r="G785" s="11"/>
+      <c r="G785" s="12"/>
       <c r="H785" s="3"/>
       <c r="I785" s="3"/>
       <c r="J785" s="3"/>
@@ -27257,7 +27267,7 @@
       <c r="D786" s="3"/>
       <c r="E786" s="3"/>
       <c r="F786" s="3"/>
-      <c r="G786" s="11"/>
+      <c r="G786" s="12"/>
       <c r="H786" s="3"/>
       <c r="I786" s="3"/>
       <c r="J786" s="3"/>
@@ -27285,7 +27295,7 @@
       <c r="D787" s="3"/>
       <c r="E787" s="3"/>
       <c r="F787" s="3"/>
-      <c r="G787" s="11"/>
+      <c r="G787" s="12"/>
       <c r="H787" s="3"/>
       <c r="I787" s="3"/>
       <c r="J787" s="3"/>
@@ -27313,7 +27323,7 @@
       <c r="D788" s="3"/>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
-      <c r="G788" s="11"/>
+      <c r="G788" s="12"/>
       <c r="H788" s="3"/>
       <c r="I788" s="3"/>
       <c r="J788" s="3"/>
@@ -27341,7 +27351,7 @@
       <c r="D789" s="3"/>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
-      <c r="G789" s="11"/>
+      <c r="G789" s="12"/>
       <c r="H789" s="3"/>
       <c r="I789" s="3"/>
       <c r="J789" s="3"/>
@@ -27369,7 +27379,7 @@
       <c r="D790" s="3"/>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
-      <c r="G790" s="11"/>
+      <c r="G790" s="12"/>
       <c r="H790" s="3"/>
       <c r="I790" s="3"/>
       <c r="J790" s="3"/>
@@ -27397,7 +27407,7 @@
       <c r="D791" s="3"/>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
-      <c r="G791" s="11"/>
+      <c r="G791" s="12"/>
       <c r="H791" s="3"/>
       <c r="I791" s="3"/>
       <c r="J791" s="3"/>
@@ -27425,7 +27435,7 @@
       <c r="D792" s="3"/>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
-      <c r="G792" s="11"/>
+      <c r="G792" s="12"/>
       <c r="H792" s="3"/>
       <c r="I792" s="3"/>
       <c r="J792" s="3"/>
@@ -27453,7 +27463,7 @@
       <c r="D793" s="3"/>
       <c r="E793" s="3"/>
       <c r="F793" s="3"/>
-      <c r="G793" s="11"/>
+      <c r="G793" s="12"/>
       <c r="H793" s="3"/>
       <c r="I793" s="3"/>
       <c r="J793" s="3"/>
@@ -27481,7 +27491,7 @@
       <c r="D794" s="3"/>
       <c r="E794" s="3"/>
       <c r="F794" s="3"/>
-      <c r="G794" s="11"/>
+      <c r="G794" s="12"/>
       <c r="H794" s="3"/>
       <c r="I794" s="3"/>
       <c r="J794" s="3"/>
@@ -27509,7 +27519,7 @@
       <c r="D795" s="3"/>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
-      <c r="G795" s="11"/>
+      <c r="G795" s="12"/>
       <c r="H795" s="3"/>
       <c r="I795" s="3"/>
       <c r="J795" s="3"/>
@@ -27537,7 +27547,7 @@
       <c r="D796" s="3"/>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
-      <c r="G796" s="11"/>
+      <c r="G796" s="12"/>
       <c r="H796" s="3"/>
       <c r="I796" s="3"/>
       <c r="J796" s="3"/>
@@ -27565,7 +27575,7 @@
       <c r="D797" s="3"/>
       <c r="E797" s="3"/>
       <c r="F797" s="3"/>
-      <c r="G797" s="11"/>
+      <c r="G797" s="12"/>
       <c r="H797" s="3"/>
       <c r="I797" s="3"/>
       <c r="J797" s="3"/>
@@ -27593,7 +27603,7 @@
       <c r="D798" s="3"/>
       <c r="E798" s="3"/>
       <c r="F798" s="3"/>
-      <c r="G798" s="11"/>
+      <c r="G798" s="12"/>
       <c r="H798" s="3"/>
       <c r="I798" s="3"/>
       <c r="J798" s="3"/>
@@ -27621,7 +27631,7 @@
       <c r="D799" s="3"/>
       <c r="E799" s="3"/>
       <c r="F799" s="3"/>
-      <c r="G799" s="11"/>
+      <c r="G799" s="12"/>
       <c r="H799" s="3"/>
       <c r="I799" s="3"/>
       <c r="J799" s="3"/>
@@ -27649,7 +27659,7 @@
       <c r="D800" s="3"/>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
-      <c r="G800" s="11"/>
+      <c r="G800" s="12"/>
       <c r="H800" s="3"/>
       <c r="I800" s="3"/>
       <c r="J800" s="3"/>
@@ -27677,7 +27687,7 @@
       <c r="D801" s="3"/>
       <c r="E801" s="3"/>
       <c r="F801" s="3"/>
-      <c r="G801" s="11"/>
+      <c r="G801" s="12"/>
       <c r="H801" s="3"/>
       <c r="I801" s="3"/>
       <c r="J801" s="3"/>
@@ -27705,7 +27715,7 @@
       <c r="D802" s="3"/>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
-      <c r="G802" s="11"/>
+      <c r="G802" s="12"/>
       <c r="H802" s="3"/>
       <c r="I802" s="3"/>
       <c r="J802" s="3"/>
@@ -27733,7 +27743,7 @@
       <c r="D803" s="3"/>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
-      <c r="G803" s="11"/>
+      <c r="G803" s="12"/>
       <c r="H803" s="3"/>
       <c r="I803" s="3"/>
       <c r="J803" s="3"/>
@@ -27761,7 +27771,7 @@
       <c r="D804" s="3"/>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
-      <c r="G804" s="11"/>
+      <c r="G804" s="12"/>
       <c r="H804" s="3"/>
       <c r="I804" s="3"/>
       <c r="J804" s="3"/>
@@ -27789,7 +27799,7 @@
       <c r="D805" s="3"/>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
-      <c r="G805" s="11"/>
+      <c r="G805" s="12"/>
       <c r="H805" s="3"/>
       <c r="I805" s="3"/>
       <c r="J805" s="3"/>
@@ -27817,7 +27827,7 @@
       <c r="D806" s="3"/>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
-      <c r="G806" s="11"/>
+      <c r="G806" s="12"/>
       <c r="H806" s="3"/>
       <c r="I806" s="3"/>
       <c r="J806" s="3"/>
@@ -27845,7 +27855,7 @@
       <c r="D807" s="3"/>
       <c r="E807" s="3"/>
       <c r="F807" s="3"/>
-      <c r="G807" s="11"/>
+      <c r="G807" s="12"/>
       <c r="H807" s="3"/>
       <c r="I807" s="3"/>
       <c r="J807" s="3"/>
@@ -27873,7 +27883,7 @@
       <c r="D808" s="3"/>
       <c r="E808" s="3"/>
       <c r="F808" s="3"/>
-      <c r="G808" s="11"/>
+      <c r="G808" s="12"/>
       <c r="H808" s="3"/>
       <c r="I808" s="3"/>
       <c r="J808" s="3"/>
@@ -27901,7 +27911,7 @@
       <c r="D809" s="3"/>
       <c r="E809" s="3"/>
       <c r="F809" s="3"/>
-      <c r="G809" s="11"/>
+      <c r="G809" s="12"/>
       <c r="H809" s="3"/>
       <c r="I809" s="3"/>
       <c r="J809" s="3"/>
@@ -27929,7 +27939,7 @@
       <c r="D810" s="3"/>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
-      <c r="G810" s="11"/>
+      <c r="G810" s="12"/>
       <c r="H810" s="3"/>
       <c r="I810" s="3"/>
       <c r="J810" s="3"/>
@@ -27957,7 +27967,7 @@
       <c r="D811" s="3"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
-      <c r="G811" s="11"/>
+      <c r="G811" s="12"/>
       <c r="H811" s="3"/>
       <c r="I811" s="3"/>
       <c r="J811" s="3"/>
@@ -27985,7 +27995,7 @@
       <c r="D812" s="3"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
-      <c r="G812" s="11"/>
+      <c r="G812" s="12"/>
       <c r="H812" s="3"/>
       <c r="I812" s="3"/>
       <c r="J812" s="3"/>
@@ -28013,7 +28023,7 @@
       <c r="D813" s="3"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
-      <c r="G813" s="11"/>
+      <c r="G813" s="12"/>
       <c r="H813" s="3"/>
       <c r="I813" s="3"/>
       <c r="J813" s="3"/>
@@ -28041,7 +28051,7 @@
       <c r="D814" s="3"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
-      <c r="G814" s="11"/>
+      <c r="G814" s="12"/>
       <c r="H814" s="3"/>
       <c r="I814" s="3"/>
       <c r="J814" s="3"/>
@@ -28069,7 +28079,7 @@
       <c r="D815" s="3"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
-      <c r="G815" s="11"/>
+      <c r="G815" s="12"/>
       <c r="H815" s="3"/>
       <c r="I815" s="3"/>
       <c r="J815" s="3"/>
@@ -28097,7 +28107,7 @@
       <c r="D816" s="3"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
-      <c r="G816" s="11"/>
+      <c r="G816" s="12"/>
       <c r="H816" s="3"/>
       <c r="I816" s="3"/>
       <c r="J816" s="3"/>
@@ -28125,7 +28135,7 @@
       <c r="D817" s="3"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
-      <c r="G817" s="11"/>
+      <c r="G817" s="12"/>
       <c r="H817" s="3"/>
       <c r="I817" s="3"/>
       <c r="J817" s="3"/>
@@ -28153,7 +28163,7 @@
       <c r="D818" s="3"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
-      <c r="G818" s="11"/>
+      <c r="G818" s="12"/>
       <c r="H818" s="3"/>
       <c r="I818" s="3"/>
       <c r="J818" s="3"/>
@@ -28181,7 +28191,7 @@
       <c r="D819" s="3"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
-      <c r="G819" s="11"/>
+      <c r="G819" s="12"/>
       <c r="H819" s="3"/>
       <c r="I819" s="3"/>
       <c r="J819" s="3"/>
@@ -28209,7 +28219,7 @@
       <c r="D820" s="3"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
-      <c r="G820" s="11"/>
+      <c r="G820" s="12"/>
       <c r="H820" s="3"/>
       <c r="I820" s="3"/>
       <c r="J820" s="3"/>
@@ -28237,7 +28247,7 @@
       <c r="D821" s="3"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
-      <c r="G821" s="11"/>
+      <c r="G821" s="12"/>
       <c r="H821" s="3"/>
       <c r="I821" s="3"/>
       <c r="J821" s="3"/>
@@ -28265,7 +28275,7 @@
       <c r="D822" s="3"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
-      <c r="G822" s="11"/>
+      <c r="G822" s="12"/>
       <c r="H822" s="3"/>
       <c r="I822" s="3"/>
       <c r="J822" s="3"/>
@@ -28293,7 +28303,7 @@
       <c r="D823" s="3"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
-      <c r="G823" s="11"/>
+      <c r="G823" s="12"/>
       <c r="H823" s="3"/>
       <c r="I823" s="3"/>
       <c r="J823" s="3"/>
@@ -28321,7 +28331,7 @@
       <c r="D824" s="3"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
-      <c r="G824" s="11"/>
+      <c r="G824" s="12"/>
       <c r="H824" s="3"/>
       <c r="I824" s="3"/>
       <c r="J824" s="3"/>
@@ -28349,7 +28359,7 @@
       <c r="D825" s="3"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
-      <c r="G825" s="11"/>
+      <c r="G825" s="12"/>
       <c r="H825" s="3"/>
       <c r="I825" s="3"/>
       <c r="J825" s="3"/>
@@ -28377,7 +28387,7 @@
       <c r="D826" s="3"/>
       <c r="E826" s="3"/>
       <c r="F826" s="3"/>
-      <c r="G826" s="11"/>
+      <c r="G826" s="12"/>
       <c r="H826" s="3"/>
       <c r="I826" s="3"/>
       <c r="J826" s="3"/>
@@ -28405,7 +28415,7 @@
       <c r="D827" s="3"/>
       <c r="E827" s="3"/>
       <c r="F827" s="3"/>
-      <c r="G827" s="11"/>
+      <c r="G827" s="12"/>
       <c r="H827" s="3"/>
       <c r="I827" s="3"/>
       <c r="J827" s="3"/>
@@ -28433,7 +28443,7 @@
       <c r="D828" s="3"/>
       <c r="E828" s="3"/>
       <c r="F828" s="3"/>
-      <c r="G828" s="11"/>
+      <c r="G828" s="12"/>
       <c r="H828" s="3"/>
       <c r="I828" s="3"/>
       <c r="J828" s="3"/>
@@ -28461,7 +28471,7 @@
       <c r="D829" s="3"/>
       <c r="E829" s="3"/>
       <c r="F829" s="3"/>
-      <c r="G829" s="11"/>
+      <c r="G829" s="12"/>
       <c r="H829" s="3"/>
       <c r="I829" s="3"/>
       <c r="J829" s="3"/>
@@ -28489,7 +28499,7 @@
       <c r="D830" s="3"/>
       <c r="E830" s="3"/>
       <c r="F830" s="3"/>
-      <c r="G830" s="11"/>
+      <c r="G830" s="12"/>
       <c r="H830" s="3"/>
       <c r="I830" s="3"/>
       <c r="J830" s="3"/>
@@ -28517,7 +28527,7 @@
       <c r="D831" s="3"/>
       <c r="E831" s="3"/>
       <c r="F831" s="3"/>
-      <c r="G831" s="11"/>
+      <c r="G831" s="12"/>
       <c r="H831" s="3"/>
       <c r="I831" s="3"/>
       <c r="J831" s="3"/>
@@ -28545,7 +28555,7 @@
       <c r="D832" s="3"/>
       <c r="E832" s="3"/>
       <c r="F832" s="3"/>
-      <c r="G832" s="11"/>
+      <c r="G832" s="12"/>
       <c r="H832" s="3"/>
       <c r="I832" s="3"/>
       <c r="J832" s="3"/>
@@ -28573,7 +28583,7 @@
       <c r="D833" s="3"/>
       <c r="E833" s="3"/>
       <c r="F833" s="3"/>
-      <c r="G833" s="11"/>
+      <c r="G833" s="12"/>
       <c r="H833" s="3"/>
       <c r="I833" s="3"/>
       <c r="J833" s="3"/>
@@ -28601,7 +28611,7 @@
       <c r="D834" s="3"/>
       <c r="E834" s="3"/>
       <c r="F834" s="3"/>
-      <c r="G834" s="11"/>
+      <c r="G834" s="12"/>
       <c r="H834" s="3"/>
       <c r="I834" s="3"/>
       <c r="J834" s="3"/>
@@ -28629,7 +28639,7 @@
       <c r="D835" s="3"/>
       <c r="E835" s="3"/>
       <c r="F835" s="3"/>
-      <c r="G835" s="11"/>
+      <c r="G835" s="12"/>
       <c r="H835" s="3"/>
       <c r="I835" s="3"/>
       <c r="J835" s="3"/>
@@ -28657,7 +28667,7 @@
       <c r="D836" s="3"/>
       <c r="E836" s="3"/>
       <c r="F836" s="3"/>
-      <c r="G836" s="11"/>
+      <c r="G836" s="12"/>
       <c r="H836" s="3"/>
       <c r="I836" s="3"/>
       <c r="J836" s="3"/>
@@ -28685,7 +28695,7 @@
       <c r="D837" s="3"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
-      <c r="G837" s="11"/>
+      <c r="G837" s="12"/>
       <c r="H837" s="3"/>
       <c r="I837" s="3"/>
       <c r="J837" s="3"/>
@@ -28713,7 +28723,7 @@
       <c r="D838" s="3"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
-      <c r="G838" s="11"/>
+      <c r="G838" s="12"/>
       <c r="H838" s="3"/>
       <c r="I838" s="3"/>
       <c r="J838" s="3"/>
@@ -28741,7 +28751,7 @@
       <c r="D839" s="3"/>
       <c r="E839" s="3"/>
       <c r="F839" s="3"/>
-      <c r="G839" s="11"/>
+      <c r="G839" s="12"/>
       <c r="H839" s="3"/>
       <c r="I839" s="3"/>
       <c r="J839" s="3"/>
@@ -28769,7 +28779,7 @@
       <c r="D840" s="3"/>
       <c r="E840" s="3"/>
       <c r="F840" s="3"/>
-      <c r="G840" s="11"/>
+      <c r="G840" s="12"/>
       <c r="H840" s="3"/>
       <c r="I840" s="3"/>
       <c r="J840" s="3"/>
@@ -28797,7 +28807,7 @@
       <c r="D841" s="3"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
-      <c r="G841" s="11"/>
+      <c r="G841" s="12"/>
       <c r="H841" s="3"/>
       <c r="I841" s="3"/>
       <c r="J841" s="3"/>
@@ -28825,7 +28835,7 @@
       <c r="D842" s="3"/>
       <c r="E842" s="3"/>
       <c r="F842" s="3"/>
-      <c r="G842" s="11"/>
+      <c r="G842" s="12"/>
       <c r="H842" s="3"/>
       <c r="I842" s="3"/>
       <c r="J842" s="3"/>
@@ -28853,7 +28863,7 @@
       <c r="D843" s="3"/>
       <c r="E843" s="3"/>
       <c r="F843" s="3"/>
-      <c r="G843" s="11"/>
+      <c r="G843" s="12"/>
       <c r="H843" s="3"/>
       <c r="I843" s="3"/>
       <c r="J843" s="3"/>
@@ -28881,7 +28891,7 @@
       <c r="D844" s="3"/>
       <c r="E844" s="3"/>
       <c r="F844" s="3"/>
-      <c r="G844" s="11"/>
+      <c r="G844" s="12"/>
       <c r="H844" s="3"/>
       <c r="I844" s="3"/>
       <c r="J844" s="3"/>
@@ -28909,7 +28919,7 @@
       <c r="D845" s="3"/>
       <c r="E845" s="3"/>
       <c r="F845" s="3"/>
-      <c r="G845" s="11"/>
+      <c r="G845" s="12"/>
       <c r="H845" s="3"/>
       <c r="I845" s="3"/>
       <c r="J845" s="3"/>
@@ -28937,7 +28947,7 @@
       <c r="D846" s="3"/>
       <c r="E846" s="3"/>
       <c r="F846" s="3"/>
-      <c r="G846" s="11"/>
+      <c r="G846" s="12"/>
       <c r="H846" s="3"/>
       <c r="I846" s="3"/>
       <c r="J846" s="3"/>
@@ -28965,7 +28975,7 @@
       <c r="D847" s="3"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
-      <c r="G847" s="11"/>
+      <c r="G847" s="12"/>
       <c r="H847" s="3"/>
       <c r="I847" s="3"/>
       <c r="J847" s="3"/>
@@ -28993,7 +29003,7 @@
       <c r="D848" s="3"/>
       <c r="E848" s="3"/>
       <c r="F848" s="3"/>
-      <c r="G848" s="11"/>
+      <c r="G848" s="12"/>
       <c r="H848" s="3"/>
       <c r="I848" s="3"/>
       <c r="J848" s="3"/>
@@ -29021,7 +29031,7 @@
       <c r="D849" s="3"/>
       <c r="E849" s="3"/>
       <c r="F849" s="3"/>
-      <c r="G849" s="11"/>
+      <c r="G849" s="12"/>
       <c r="H849" s="3"/>
       <c r="I849" s="3"/>
       <c r="J849" s="3"/>
@@ -29049,7 +29059,7 @@
       <c r="D850" s="3"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
-      <c r="G850" s="11"/>
+      <c r="G850" s="12"/>
       <c r="H850" s="3"/>
       <c r="I850" s="3"/>
       <c r="J850" s="3"/>
@@ -29077,7 +29087,7 @@
       <c r="D851" s="3"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
-      <c r="G851" s="11"/>
+      <c r="G851" s="12"/>
       <c r="H851" s="3"/>
       <c r="I851" s="3"/>
       <c r="J851" s="3"/>
@@ -29105,7 +29115,7 @@
       <c r="D852" s="3"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
-      <c r="G852" s="11"/>
+      <c r="G852" s="12"/>
       <c r="H852" s="3"/>
       <c r="I852" s="3"/>
       <c r="J852" s="3"/>
@@ -29133,7 +29143,7 @@
       <c r="D853" s="3"/>
       <c r="E853" s="3"/>
       <c r="F853" s="3"/>
-      <c r="G853" s="11"/>
+      <c r="G853" s="12"/>
       <c r="H853" s="3"/>
       <c r="I853" s="3"/>
       <c r="J853" s="3"/>
@@ -29161,7 +29171,7 @@
       <c r="D854" s="3"/>
       <c r="E854" s="3"/>
       <c r="F854" s="3"/>
-      <c r="G854" s="11"/>
+      <c r="G854" s="12"/>
       <c r="H854" s="3"/>
       <c r="I854" s="3"/>
       <c r="J854" s="3"/>
@@ -29189,7 +29199,7 @@
       <c r="D855" s="3"/>
       <c r="E855" s="3"/>
       <c r="F855" s="3"/>
-      <c r="G855" s="11"/>
+      <c r="G855" s="12"/>
       <c r="H855" s="3"/>
       <c r="I855" s="3"/>
       <c r="J855" s="3"/>
@@ -29217,7 +29227,7 @@
       <c r="D856" s="3"/>
       <c r="E856" s="3"/>
       <c r="F856" s="3"/>
-      <c r="G856" s="11"/>
+      <c r="G856" s="12"/>
       <c r="H856" s="3"/>
       <c r="I856" s="3"/>
       <c r="J856" s="3"/>
@@ -29245,7 +29255,7 @@
       <c r="D857" s="3"/>
       <c r="E857" s="3"/>
       <c r="F857" s="3"/>
-      <c r="G857" s="11"/>
+      <c r="G857" s="12"/>
       <c r="H857" s="3"/>
       <c r="I857" s="3"/>
       <c r="J857" s="3"/>
@@ -29273,7 +29283,7 @@
       <c r="D858" s="3"/>
       <c r="E858" s="3"/>
       <c r="F858" s="3"/>
-      <c r="G858" s="11"/>
+      <c r="G858" s="12"/>
       <c r="H858" s="3"/>
       <c r="I858" s="3"/>
       <c r="J858" s="3"/>
@@ -29301,7 +29311,7 @@
       <c r="D859" s="3"/>
       <c r="E859" s="3"/>
       <c r="F859" s="3"/>
-      <c r="G859" s="11"/>
+      <c r="G859" s="12"/>
       <c r="H859" s="3"/>
       <c r="I859" s="3"/>
       <c r="J859" s="3"/>
@@ -29329,7 +29339,7 @@
       <c r="D860" s="3"/>
       <c r="E860" s="3"/>
       <c r="F860" s="3"/>
-      <c r="G860" s="11"/>
+      <c r="G860" s="12"/>
       <c r="H860" s="3"/>
       <c r="I860" s="3"/>
       <c r="J860" s="3"/>
@@ -29357,7 +29367,7 @@
       <c r="D861" s="3"/>
       <c r="E861" s="3"/>
       <c r="F861" s="3"/>
-      <c r="G861" s="11"/>
+      <c r="G861" s="12"/>
       <c r="H861" s="3"/>
       <c r="I861" s="3"/>
       <c r="J861" s="3"/>
@@ -29385,7 +29395,7 @@
       <c r="D862" s="3"/>
       <c r="E862" s="3"/>
       <c r="F862" s="3"/>
-      <c r="G862" s="11"/>
+      <c r="G862" s="12"/>
       <c r="H862" s="3"/>
       <c r="I862" s="3"/>
       <c r="J862" s="3"/>
@@ -29413,7 +29423,7 @@
       <c r="D863" s="3"/>
       <c r="E863" s="3"/>
       <c r="F863" s="3"/>
-      <c r="G863" s="11"/>
+      <c r="G863" s="12"/>
       <c r="H863" s="3"/>
       <c r="I863" s="3"/>
       <c r="J863" s="3"/>
@@ -29441,7 +29451,7 @@
       <c r="D864" s="3"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
-      <c r="G864" s="11"/>
+      <c r="G864" s="12"/>
       <c r="H864" s="3"/>
       <c r="I864" s="3"/>
       <c r="J864" s="3"/>
@@ -29469,7 +29479,7 @@
       <c r="D865" s="3"/>
       <c r="E865" s="3"/>
       <c r="F865" s="3"/>
-      <c r="G865" s="11"/>
+      <c r="G865" s="12"/>
       <c r="H865" s="3"/>
       <c r="I865" s="3"/>
       <c r="J865" s="3"/>
@@ -29497,7 +29507,7 @@
       <c r="D866" s="3"/>
       <c r="E866" s="3"/>
       <c r="F866" s="3"/>
-      <c r="G866" s="11"/>
+      <c r="G866" s="12"/>
       <c r="H866" s="3"/>
       <c r="I866" s="3"/>
       <c r="J866" s="3"/>
@@ -29525,7 +29535,7 @@
       <c r="D867" s="3"/>
       <c r="E867" s="3"/>
       <c r="F867" s="3"/>
-      <c r="G867" s="11"/>
+      <c r="G867" s="12"/>
       <c r="H867" s="3"/>
       <c r="I867" s="3"/>
       <c r="J867" s="3"/>
@@ -29553,7 +29563,7 @@
       <c r="D868" s="3"/>
       <c r="E868" s="3"/>
       <c r="F868" s="3"/>
-      <c r="G868" s="11"/>
+      <c r="G868" s="12"/>
       <c r="H868" s="3"/>
       <c r="I868" s="3"/>
       <c r="J868" s="3"/>
@@ -29581,7 +29591,7 @@
       <c r="D869" s="3"/>
       <c r="E869" s="3"/>
       <c r="F869" s="3"/>
-      <c r="G869" s="11"/>
+      <c r="G869" s="12"/>
       <c r="H869" s="3"/>
       <c r="I869" s="3"/>
       <c r="J869" s="3"/>
@@ -29609,7 +29619,7 @@
       <c r="D870" s="3"/>
       <c r="E870" s="3"/>
       <c r="F870" s="3"/>
-      <c r="G870" s="11"/>
+      <c r="G870" s="12"/>
       <c r="H870" s="3"/>
       <c r="I870" s="3"/>
       <c r="J870" s="3"/>
@@ -29637,7 +29647,7 @@
       <c r="D871" s="3"/>
       <c r="E871" s="3"/>
       <c r="F871" s="3"/>
-      <c r="G871" s="11"/>
+      <c r="G871" s="12"/>
       <c r="H871" s="3"/>
       <c r="I871" s="3"/>
       <c r="J871" s="3"/>
@@ -29665,7 +29675,7 @@
       <c r="D872" s="3"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
-      <c r="G872" s="11"/>
+      <c r="G872" s="12"/>
       <c r="H872" s="3"/>
       <c r="I872" s="3"/>
       <c r="J872" s="3"/>
@@ -29693,7 +29703,7 @@
       <c r="D873" s="3"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
-      <c r="G873" s="11"/>
+      <c r="G873" s="12"/>
       <c r="H873" s="3"/>
       <c r="I873" s="3"/>
       <c r="J873" s="3"/>
@@ -29721,7 +29731,7 @@
       <c r="D874" s="3"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
-      <c r="G874" s="11"/>
+      <c r="G874" s="12"/>
       <c r="H874" s="3"/>
       <c r="I874" s="3"/>
       <c r="J874" s="3"/>
@@ -29749,7 +29759,7 @@
       <c r="D875" s="3"/>
       <c r="E875" s="3"/>
       <c r="F875" s="3"/>
-      <c r="G875" s="11"/>
+      <c r="G875" s="12"/>
       <c r="H875" s="3"/>
       <c r="I875" s="3"/>
       <c r="J875" s="3"/>
@@ -29777,7 +29787,7 @@
       <c r="D876" s="3"/>
       <c r="E876" s="3"/>
       <c r="F876" s="3"/>
-      <c r="G876" s="11"/>
+      <c r="G876" s="12"/>
       <c r="H876" s="3"/>
       <c r="I876" s="3"/>
       <c r="J876" s="3"/>
@@ -29805,7 +29815,7 @@
       <c r="D877" s="3"/>
       <c r="E877" s="3"/>
       <c r="F877" s="3"/>
-      <c r="G877" s="11"/>
+      <c r="G877" s="12"/>
       <c r="H877" s="3"/>
       <c r="I877" s="3"/>
       <c r="J877" s="3"/>
@@ -29833,7 +29843,7 @@
       <c r="D878" s="3"/>
       <c r="E878" s="3"/>
       <c r="F878" s="3"/>
-      <c r="G878" s="11"/>
+      <c r="G878" s="12"/>
       <c r="H878" s="3"/>
       <c r="I878" s="3"/>
       <c r="J878" s="3"/>
@@ -29861,7 +29871,7 @@
       <c r="D879" s="3"/>
       <c r="E879" s="3"/>
       <c r="F879" s="3"/>
-      <c r="G879" s="11"/>
+      <c r="G879" s="12"/>
       <c r="H879" s="3"/>
       <c r="I879" s="3"/>
       <c r="J879" s="3"/>
@@ -29889,7 +29899,7 @@
       <c r="D880" s="3"/>
       <c r="E880" s="3"/>
       <c r="F880" s="3"/>
-      <c r="G880" s="11"/>
+      <c r="G880" s="12"/>
       <c r="H880" s="3"/>
       <c r="I880" s="3"/>
       <c r="J880" s="3"/>
@@ -29917,7 +29927,7 @@
       <c r="D881" s="3"/>
       <c r="E881" s="3"/>
       <c r="F881" s="3"/>
-      <c r="G881" s="11"/>
+      <c r="G881" s="12"/>
       <c r="H881" s="3"/>
       <c r="I881" s="3"/>
       <c r="J881" s="3"/>
@@ -29945,7 +29955,7 @@
       <c r="D882" s="3"/>
       <c r="E882" s="3"/>
       <c r="F882" s="3"/>
-      <c r="G882" s="11"/>
+      <c r="G882" s="12"/>
       <c r="H882" s="3"/>
       <c r="I882" s="3"/>
       <c r="J882" s="3"/>
@@ -29973,7 +29983,7 @@
       <c r="D883" s="3"/>
       <c r="E883" s="3"/>
       <c r="F883" s="3"/>
-      <c r="G883" s="11"/>
+      <c r="G883" s="12"/>
       <c r="H883" s="3"/>
       <c r="I883" s="3"/>
       <c r="J883" s="3"/>
@@ -30001,7 +30011,7 @@
       <c r="D884" s="3"/>
       <c r="E884" s="3"/>
       <c r="F884" s="3"/>
-      <c r="G884" s="11"/>
+      <c r="G884" s="12"/>
       <c r="H884" s="3"/>
       <c r="I884" s="3"/>
       <c r="J884" s="3"/>
@@ -30029,7 +30039,7 @@
       <c r="D885" s="3"/>
       <c r="E885" s="3"/>
       <c r="F885" s="3"/>
-      <c r="G885" s="11"/>
+      <c r="G885" s="12"/>
       <c r="H885" s="3"/>
       <c r="I885" s="3"/>
       <c r="J885" s="3"/>
@@ -30057,7 +30067,7 @@
       <c r="D886" s="3"/>
       <c r="E886" s="3"/>
       <c r="F886" s="3"/>
-      <c r="G886" s="11"/>
+      <c r="G886" s="12"/>
       <c r="H886" s="3"/>
       <c r="I886" s="3"/>
       <c r="J886" s="3"/>
@@ -30085,7 +30095,7 @@
       <c r="D887" s="3"/>
       <c r="E887" s="3"/>
       <c r="F887" s="3"/>
-      <c r="G887" s="11"/>
+      <c r="G887" s="12"/>
       <c r="H887" s="3"/>
       <c r="I887" s="3"/>
       <c r="J887" s="3"/>
@@ -30113,7 +30123,7 @@
       <c r="D888" s="3"/>
       <c r="E888" s="3"/>
       <c r="F888" s="3"/>
-      <c r="G888" s="11"/>
+      <c r="G888" s="12"/>
       <c r="H888" s="3"/>
       <c r="I888" s="3"/>
       <c r="J888" s="3"/>
@@ -30141,7 +30151,7 @@
       <c r="D889" s="3"/>
       <c r="E889" s="3"/>
       <c r="F889" s="3"/>
-      <c r="G889" s="11"/>
+      <c r="G889" s="12"/>
       <c r="H889" s="3"/>
       <c r="I889" s="3"/>
       <c r="J889" s="3"/>
@@ -30169,7 +30179,7 @@
       <c r="D890" s="3"/>
       <c r="E890" s="3"/>
       <c r="F890" s="3"/>
-      <c r="G890" s="11"/>
+      <c r="G890" s="12"/>
       <c r="H890" s="3"/>
       <c r="I890" s="3"/>
       <c r="J890" s="3"/>
@@ -30197,7 +30207,7 @@
       <c r="D891" s="3"/>
       <c r="E891" s="3"/>
       <c r="F891" s="3"/>
-      <c r="G891" s="11"/>
+      <c r="G891" s="12"/>
       <c r="H891" s="3"/>
       <c r="I891" s="3"/>
       <c r="J891" s="3"/>
@@ -30225,7 +30235,7 @@
       <c r="D892" s="3"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
-      <c r="G892" s="11"/>
+      <c r="G892" s="12"/>
       <c r="H892" s="3"/>
       <c r="I892" s="3"/>
       <c r="J892" s="3"/>
@@ -30253,7 +30263,7 @@
       <c r="D893" s="3"/>
       <c r="E893" s="3"/>
       <c r="F893" s="3"/>
-      <c r="G893" s="11"/>
+      <c r="G893" s="12"/>
       <c r="H893" s="3"/>
       <c r="I893" s="3"/>
       <c r="J893" s="3"/>
@@ -30281,7 +30291,7 @@
       <c r="D894" s="3"/>
       <c r="E894" s="3"/>
       <c r="F894" s="3"/>
-      <c r="G894" s="11"/>
+      <c r="G894" s="12"/>
       <c r="H894" s="3"/>
       <c r="I894" s="3"/>
       <c r="J894" s="3"/>
@@ -30309,7 +30319,7 @@
       <c r="D895" s="3"/>
       <c r="E895" s="3"/>
       <c r="F895" s="3"/>
-      <c r="G895" s="11"/>
+      <c r="G895" s="12"/>
       <c r="H895" s="3"/>
       <c r="I895" s="3"/>
       <c r="J895" s="3"/>
@@ -30337,7 +30347,7 @@
       <c r="D896" s="3"/>
       <c r="E896" s="3"/>
       <c r="F896" s="3"/>
-      <c r="G896" s="11"/>
+      <c r="G896" s="12"/>
       <c r="H896" s="3"/>
       <c r="I896" s="3"/>
       <c r="J896" s="3"/>
@@ -30365,7 +30375,7 @@
       <c r="D897" s="3"/>
       <c r="E897" s="3"/>
       <c r="F897" s="3"/>
-      <c r="G897" s="11"/>
+      <c r="G897" s="12"/>
       <c r="H897" s="3"/>
       <c r="I897" s="3"/>
       <c r="J897" s="3"/>
@@ -30393,7 +30403,7 @@
       <c r="D898" s="3"/>
       <c r="E898" s="3"/>
       <c r="F898" s="3"/>
-      <c r="G898" s="11"/>
+      <c r="G898" s="12"/>
       <c r="H898" s="3"/>
       <c r="I898" s="3"/>
       <c r="J898" s="3"/>
@@ -30421,7 +30431,7 @@
       <c r="D899" s="3"/>
       <c r="E899" s="3"/>
       <c r="F899" s="3"/>
-      <c r="G899" s="11"/>
+      <c r="G899" s="12"/>
       <c r="H899" s="3"/>
       <c r="I899" s="3"/>
       <c r="J899" s="3"/>
@@ -30449,7 +30459,7 @@
       <c r="D900" s="3"/>
       <c r="E900" s="3"/>
       <c r="F900" s="3"/>
-      <c r="G900" s="11"/>
+      <c r="G900" s="12"/>
       <c r="H900" s="3"/>
       <c r="I900" s="3"/>
       <c r="J900" s="3"/>
@@ -30477,7 +30487,7 @@
       <c r="D901" s="3"/>
       <c r="E901" s="3"/>
       <c r="F901" s="3"/>
-      <c r="G901" s="11"/>
+      <c r="G901" s="12"/>
       <c r="H901" s="3"/>
       <c r="I901" s="3"/>
       <c r="J901" s="3"/>
@@ -30505,7 +30515,7 @@
       <c r="D902" s="3"/>
       <c r="E902" s="3"/>
       <c r="F902" s="3"/>
-      <c r="G902" s="11"/>
+      <c r="G902" s="12"/>
       <c r="H902" s="3"/>
       <c r="I902" s="3"/>
       <c r="J902" s="3"/>
@@ -30533,7 +30543,7 @@
       <c r="D903" s="3"/>
       <c r="E903" s="3"/>
       <c r="F903" s="3"/>
-      <c r="G903" s="11"/>
+      <c r="G903" s="12"/>
       <c r="H903" s="3"/>
       <c r="I903" s="3"/>
       <c r="J903" s="3"/>
@@ -30561,7 +30571,7 @@
       <c r="D904" s="3"/>
       <c r="E904" s="3"/>
       <c r="F904" s="3"/>
-      <c r="G904" s="11"/>
+      <c r="G904" s="12"/>
       <c r="H904" s="3"/>
       <c r="I904" s="3"/>
       <c r="J904" s="3"/>
@@ -30589,7 +30599,7 @@
       <c r="D905" s="3"/>
       <c r="E905" s="3"/>
       <c r="F905" s="3"/>
-      <c r="G905" s="11"/>
+      <c r="G905" s="12"/>
       <c r="H905" s="3"/>
       <c r="I905" s="3"/>
       <c r="J905" s="3"/>
@@ -30617,7 +30627,7 @@
       <c r="D906" s="3"/>
       <c r="E906" s="3"/>
       <c r="F906" s="3"/>
-      <c r="G906" s="11"/>
+      <c r="G906" s="12"/>
       <c r="H906" s="3"/>
       <c r="I906" s="3"/>
       <c r="J906" s="3"/>
@@ -30645,7 +30655,7 @@
       <c r="D907" s="3"/>
       <c r="E907" s="3"/>
       <c r="F907" s="3"/>
-      <c r="G907" s="11"/>
+      <c r="G907" s="12"/>
       <c r="H907" s="3"/>
       <c r="I907" s="3"/>
       <c r="J907" s="3"/>
@@ -30673,7 +30683,7 @@
       <c r="D908" s="3"/>
       <c r="E908" s="3"/>
       <c r="F908" s="3"/>
-      <c r="G908" s="11"/>
+      <c r="G908" s="12"/>
       <c r="H908" s="3"/>
       <c r="I908" s="3"/>
       <c r="J908" s="3"/>
@@ -30701,7 +30711,7 @@
       <c r="D909" s="3"/>
       <c r="E909" s="3"/>
       <c r="F909" s="3"/>
-      <c r="G909" s="11"/>
+      <c r="G909" s="12"/>
       <c r="H909" s="3"/>
       <c r="I909" s="3"/>
       <c r="J909" s="3"/>
@@ -30729,7 +30739,7 @@
       <c r="D910" s="3"/>
       <c r="E910" s="3"/>
       <c r="F910" s="3"/>
-      <c r="G910" s="11"/>
+      <c r="G910" s="12"/>
       <c r="H910" s="3"/>
       <c r="I910" s="3"/>
       <c r="J910" s="3"/>
@@ -30757,7 +30767,7 @@
       <c r="D911" s="3"/>
       <c r="E911" s="3"/>
       <c r="F911" s="3"/>
-      <c r="G911" s="11"/>
+      <c r="G911" s="12"/>
       <c r="H911" s="3"/>
       <c r="I911" s="3"/>
       <c r="J911" s="3"/>
@@ -30785,7 +30795,7 @@
       <c r="D912" s="3"/>
       <c r="E912" s="3"/>
       <c r="F912" s="3"/>
-      <c r="G912" s="11"/>
+      <c r="G912" s="12"/>
       <c r="H912" s="3"/>
       <c r="I912" s="3"/>
       <c r="J912" s="3"/>
@@ -30813,7 +30823,7 @@
       <c r="D913" s="3"/>
       <c r="E913" s="3"/>
       <c r="F913" s="3"/>
-      <c r="G913" s="11"/>
+      <c r="G913" s="12"/>
       <c r="H913" s="3"/>
       <c r="I913" s="3"/>
       <c r="J913" s="3"/>
@@ -30841,7 +30851,7 @@
       <c r="D914" s="3"/>
       <c r="E914" s="3"/>
       <c r="F914" s="3"/>
-      <c r="G914" s="11"/>
+      <c r="G914" s="12"/>
       <c r="H914" s="3"/>
       <c r="I914" s="3"/>
       <c r="J914" s="3"/>
@@ -30869,7 +30879,7 @@
       <c r="D915" s="3"/>
       <c r="E915" s="3"/>
       <c r="F915" s="3"/>
-      <c r="G915" s="11"/>
+      <c r="G915" s="12"/>
       <c r="H915" s="3"/>
       <c r="I915" s="3"/>
       <c r="J915" s="3"/>
@@ -30897,7 +30907,7 @@
       <c r="D916" s="3"/>
       <c r="E916" s="3"/>
       <c r="F916" s="3"/>
-      <c r="G916" s="11"/>
+      <c r="G916" s="12"/>
       <c r="H916" s="3"/>
       <c r="I916" s="3"/>
       <c r="J916" s="3"/>
@@ -30925,7 +30935,7 @@
       <c r="D917" s="3"/>
       <c r="E917" s="3"/>
       <c r="F917" s="3"/>
-      <c r="G917" s="11"/>
+      <c r="G917" s="12"/>
       <c r="H917" s="3"/>
       <c r="I917" s="3"/>
       <c r="J917" s="3"/>
@@ -30953,7 +30963,7 @@
       <c r="D918" s="3"/>
       <c r="E918" s="3"/>
       <c r="F918" s="3"/>
-      <c r="G918" s="11"/>
+      <c r="G918" s="12"/>
       <c r="H918" s="3"/>
       <c r="I918" s="3"/>
       <c r="J918" s="3"/>
@@ -30981,7 +30991,7 @@
       <c r="D919" s="3"/>
       <c r="E919" s="3"/>
       <c r="F919" s="3"/>
-      <c r="G919" s="11"/>
+      <c r="G919" s="12"/>
       <c r="H919" s="3"/>
       <c r="I919" s="3"/>
       <c r="J919" s="3"/>
@@ -31009,7 +31019,7 @@
       <c r="D920" s="3"/>
       <c r="E920" s="3"/>
       <c r="F920" s="3"/>
-      <c r="G920" s="11"/>
+      <c r="G920" s="12"/>
       <c r="H920" s="3"/>
       <c r="I920" s="3"/>
       <c r="J920" s="3"/>
@@ -31037,7 +31047,7 @@
       <c r="D921" s="3"/>
       <c r="E921" s="3"/>
       <c r="F921" s="3"/>
-      <c r="G921" s="11"/>
+      <c r="G921" s="12"/>
       <c r="H921" s="3"/>
       <c r="I921" s="3"/>
       <c r="J921" s="3"/>
@@ -31065,7 +31075,7 @@
       <c r="D922" s="3"/>
       <c r="E922" s="3"/>
       <c r="F922" s="3"/>
-      <c r="G922" s="11"/>
+      <c r="G922" s="12"/>
       <c r="H922" s="3"/>
       <c r="I922" s="3"/>
       <c r="J922" s="3"/>
@@ -31093,7 +31103,7 @@
       <c r="D923" s="3"/>
       <c r="E923" s="3"/>
       <c r="F923" s="3"/>
-      <c r="G923" s="11"/>
+      <c r="G923" s="12"/>
       <c r="H923" s="3"/>
       <c r="I923" s="3"/>
       <c r="J923" s="3"/>
@@ -31121,7 +31131,7 @@
       <c r="D924" s="3"/>
       <c r="E924" s="3"/>
       <c r="F924" s="3"/>
-      <c r="G924" s="11"/>
+      <c r="G924" s="12"/>
       <c r="H924" s="3"/>
       <c r="I924" s="3"/>
       <c r="J924" s="3"/>
@@ -31149,7 +31159,7 @@
       <c r="D925" s="3"/>
       <c r="E925" s="3"/>
       <c r="F925" s="3"/>
-      <c r="G925" s="11"/>
+      <c r="G925" s="12"/>
       <c r="H925" s="3"/>
       <c r="I925" s="3"/>
       <c r="J925" s="3"/>
@@ -31177,7 +31187,7 @@
       <c r="D926" s="3"/>
       <c r="E926" s="3"/>
       <c r="F926" s="3"/>
-      <c r="G926" s="11"/>
+      <c r="G926" s="12"/>
       <c r="H926" s="3"/>
       <c r="I926" s="3"/>
       <c r="J926" s="3"/>
@@ -31205,7 +31215,7 @@
       <c r="D927" s="3"/>
       <c r="E927" s="3"/>
       <c r="F927" s="3"/>
-      <c r="G927" s="11"/>
+      <c r="G927" s="12"/>
       <c r="H927" s="3"/>
       <c r="I927" s="3"/>
       <c r="J927" s="3"/>
@@ -31233,7 +31243,7 @@
       <c r="D928" s="3"/>
       <c r="E928" s="3"/>
       <c r="F928" s="3"/>
-      <c r="G928" s="11"/>
+      <c r="G928" s="12"/>
       <c r="H928" s="3"/>
       <c r="I928" s="3"/>
       <c r="J928" s="3"/>
@@ -31261,7 +31271,7 @@
       <c r="D929" s="3"/>
       <c r="E929" s="3"/>
       <c r="F929" s="3"/>
-      <c r="G929" s="11"/>
+      <c r="G929" s="12"/>
       <c r="H929" s="3"/>
       <c r="I929" s="3"/>
       <c r="J929" s="3"/>
@@ -31289,7 +31299,7 @@
       <c r="D930" s="3"/>
       <c r="E930" s="3"/>
       <c r="F930" s="3"/>
-      <c r="G930" s="11"/>
+      <c r="G930" s="12"/>
       <c r="H930" s="3"/>
       <c r="I930" s="3"/>
       <c r="J930" s="3"/>
@@ -31317,7 +31327,7 @@
       <c r="D931" s="3"/>
       <c r="E931" s="3"/>
       <c r="F931" s="3"/>
-      <c r="G931" s="11"/>
+      <c r="G931" s="12"/>
       <c r="H931" s="3"/>
       <c r="I931" s="3"/>
       <c r="J931" s="3"/>
@@ -31345,7 +31355,7 @@
       <c r="D932" s="3"/>
       <c r="E932" s="3"/>
       <c r="F932" s="3"/>
-      <c r="G932" s="11"/>
+      <c r="G932" s="12"/>
       <c r="H932" s="3"/>
       <c r="I932" s="3"/>
       <c r="J932" s="3"/>
@@ -31373,7 +31383,7 @@
       <c r="D933" s="3"/>
       <c r="E933" s="3"/>
       <c r="F933" s="3"/>
-      <c r="G933" s="11"/>
+      <c r="G933" s="12"/>
       <c r="H933" s="3"/>
       <c r="I933" s="3"/>
       <c r="J933" s="3"/>
@@ -31401,7 +31411,7 @@
       <c r="D934" s="3"/>
       <c r="E934" s="3"/>
       <c r="F934" s="3"/>
-      <c r="G934" s="11"/>
+      <c r="G934" s="12"/>
       <c r="H934" s="3"/>
       <c r="I934" s="3"/>
       <c r="J934" s="3"/>
@@ -31429,7 +31439,7 @@
       <c r="D935" s="3"/>
       <c r="E935" s="3"/>
       <c r="F935" s="3"/>
-      <c r="G935" s="11"/>
+      <c r="G935" s="12"/>
       <c r="H935" s="3"/>
       <c r="I935" s="3"/>
       <c r="J935" s="3"/>
@@ -31457,7 +31467,7 @@
       <c r="D936" s="3"/>
       <c r="E936" s="3"/>
       <c r="F936" s="3"/>
-      <c r="G936" s="11"/>
+      <c r="G936" s="12"/>
       <c r="H936" s="3"/>
       <c r="I936" s="3"/>
       <c r="J936" s="3"/>
@@ -31485,7 +31495,7 @@
       <c r="D937" s="3"/>
       <c r="E937" s="3"/>
       <c r="F937" s="3"/>
-      <c r="G937" s="11"/>
+      <c r="G937" s="12"/>
       <c r="H937" s="3"/>
       <c r="I937" s="3"/>
       <c r="J937" s="3"/>
@@ -31513,7 +31523,7 @@
       <c r="D938" s="3"/>
       <c r="E938" s="3"/>
       <c r="F938" s="3"/>
-      <c r="G938" s="11"/>
+      <c r="G938" s="12"/>
       <c r="H938" s="3"/>
       <c r="I938" s="3"/>
       <c r="J938" s="3"/>
@@ -31541,7 +31551,7 @@
       <c r="D939" s="3"/>
       <c r="E939" s="3"/>
       <c r="F939" s="3"/>
-      <c r="G939" s="11"/>
+      <c r="G939" s="12"/>
       <c r="H939" s="3"/>
       <c r="I939" s="3"/>
       <c r="J939" s="3"/>
@@ -31569,7 +31579,7 @@
       <c r="D940" s="3"/>
       <c r="E940" s="3"/>
       <c r="F940" s="3"/>
-      <c r="G940" s="11"/>
+      <c r="G940" s="12"/>
       <c r="H940" s="3"/>
       <c r="I940" s="3"/>
       <c r="J940" s="3"/>
@@ -31597,7 +31607,7 @@
       <c r="D941" s="3"/>
       <c r="E941" s="3"/>
       <c r="F941" s="3"/>
-      <c r="G941" s="11"/>
+      <c r="G941" s="12"/>
       <c r="H941" s="3"/>
       <c r="I941" s="3"/>
       <c r="J941" s="3"/>
@@ -31625,7 +31635,7 @@
       <c r="D942" s="3"/>
       <c r="E942" s="3"/>
       <c r="F942" s="3"/>
-      <c r="G942" s="11"/>
+      <c r="G942" s="12"/>
       <c r="H942" s="3"/>
       <c r="I942" s="3"/>
       <c r="J942" s="3"/>
@@ -31653,7 +31663,7 @@
       <c r="D943" s="3"/>
       <c r="E943" s="3"/>
       <c r="F943" s="3"/>
-      <c r="G943" s="11"/>
+      <c r="G943" s="12"/>
       <c r="H943" s="3"/>
       <c r="I943" s="3"/>
       <c r="J943" s="3"/>
@@ -31681,7 +31691,7 @@
       <c r="D944" s="3"/>
       <c r="E944" s="3"/>
       <c r="F944" s="3"/>
-      <c r="G944" s="11"/>
+      <c r="G944" s="12"/>
       <c r="H944" s="3"/>
       <c r="I944" s="3"/>
       <c r="J944" s="3"/>
@@ -31709,7 +31719,7 @@
       <c r="D945" s="3"/>
       <c r="E945" s="3"/>
       <c r="F945" s="3"/>
-      <c r="G945" s="11"/>
+      <c r="G945" s="12"/>
       <c r="H945" s="3"/>
       <c r="I945" s="3"/>
       <c r="J945" s="3"/>
@@ -31737,7 +31747,7 @@
       <c r="D946" s="3"/>
       <c r="E946" s="3"/>
       <c r="F946" s="3"/>
-      <c r="G946" s="11"/>
+      <c r="G946" s="12"/>
       <c r="H946" s="3"/>
       <c r="I946" s="3"/>
       <c r="J946" s="3"/>
@@ -31765,7 +31775,7 @@
       <c r="D947" s="3"/>
       <c r="E947" s="3"/>
       <c r="F947" s="3"/>
-      <c r="G947" s="11"/>
+      <c r="G947" s="12"/>
       <c r="H947" s="3"/>
       <c r="I947" s="3"/>
       <c r="J947" s="3"/>
@@ -31793,7 +31803,7 @@
       <c r="D948" s="3"/>
       <c r="E948" s="3"/>
       <c r="F948" s="3"/>
-      <c r="G948" s="11"/>
+      <c r="G948" s="12"/>
       <c r="H948" s="3"/>
       <c r="I948" s="3"/>
       <c r="J948" s="3"/>
@@ -31821,7 +31831,7 @@
       <c r="D949" s="3"/>
       <c r="E949" s="3"/>
       <c r="F949" s="3"/>
-      <c r="G949" s="11"/>
+      <c r="G949" s="12"/>
       <c r="H949" s="3"/>
       <c r="I949" s="3"/>
       <c r="J949" s="3"/>
@@ -31849,7 +31859,7 @@
       <c r="D950" s="3"/>
       <c r="E950" s="3"/>
       <c r="F950" s="3"/>
-      <c r="G950" s="11"/>
+      <c r="G950" s="12"/>
       <c r="H950" s="3"/>
       <c r="I950" s="3"/>
       <c r="J950" s="3"/>
@@ -31877,7 +31887,7 @@
       <c r="D951" s="3"/>
       <c r="E951" s="3"/>
       <c r="F951" s="3"/>
-      <c r="G951" s="11"/>
+      <c r="G951" s="12"/>
       <c r="H951" s="3"/>
       <c r="I951" s="3"/>
       <c r="J951" s="3"/>
@@ -31905,7 +31915,7 @@
       <c r="D952" s="3"/>
       <c r="E952" s="3"/>
       <c r="F952" s="3"/>
-      <c r="G952" s="11"/>
+      <c r="G952" s="12"/>
       <c r="H952" s="3"/>
       <c r="I952" s="3"/>
       <c r="J952" s="3"/>
@@ -31933,7 +31943,7 @@
       <c r="D953" s="3"/>
       <c r="E953" s="3"/>
       <c r="F953" s="3"/>
-      <c r="G953" s="11"/>
+      <c r="G953" s="12"/>
       <c r="H953" s="3"/>
       <c r="I953" s="3"/>
       <c r="J953" s="3"/>
@@ -31961,7 +31971,7 @@
       <c r="D954" s="3"/>
       <c r="E954" s="3"/>
       <c r="F954" s="3"/>
-      <c r="G954" s="11"/>
+      <c r="G954" s="12"/>
       <c r="H954" s="3"/>
       <c r="I954" s="3"/>
       <c r="J954" s="3"/>
@@ -31989,7 +31999,7 @@
       <c r="D955" s="3"/>
       <c r="E955" s="3"/>
       <c r="F955" s="3"/>
-      <c r="G955" s="11"/>
+      <c r="G955" s="12"/>
       <c r="H955" s="3"/>
       <c r="I955" s="3"/>
       <c r="J955" s="3"/>
@@ -32017,7 +32027,7 @@
       <c r="D956" s="3"/>
       <c r="E956" s="3"/>
       <c r="F956" s="3"/>
-      <c r="G956" s="11"/>
+      <c r="G956" s="12"/>
       <c r="H956" s="3"/>
       <c r="I956" s="3"/>
       <c r="J956" s="3"/>
@@ -32045,7 +32055,7 @@
       <c r="D957" s="3"/>
       <c r="E957" s="3"/>
       <c r="F957" s="3"/>
-      <c r="G957" s="11"/>
+      <c r="G957" s="12"/>
       <c r="H957" s="3"/>
       <c r="I957" s="3"/>
       <c r="J957" s="3"/>
@@ -32073,7 +32083,7 @@
       <c r="D958" s="3"/>
       <c r="E958" s="3"/>
       <c r="F958" s="3"/>
-      <c r="G958" s="11"/>
+      <c r="G958" s="12"/>
       <c r="H958" s="3"/>
       <c r="I958" s="3"/>
       <c r="J958" s="3"/>
@@ -32101,7 +32111,7 @@
       <c r="D959" s="3"/>
       <c r="E959" s="3"/>
       <c r="F959" s="3"/>
-      <c r="G959" s="11"/>
+      <c r="G959" s="12"/>
       <c r="H959" s="3"/>
       <c r="I959" s="3"/>
       <c r="J959" s="3"/>
@@ -32129,7 +32139,7 @@
       <c r="D960" s="3"/>
       <c r="E960" s="3"/>
       <c r="F960" s="3"/>
-      <c r="G960" s="11"/>
+      <c r="G960" s="12"/>
       <c r="H960" s="3"/>
       <c r="I960" s="3"/>
       <c r="J960" s="3"/>
@@ -32157,7 +32167,7 @@
       <c r="D961" s="3"/>
       <c r="E961" s="3"/>
       <c r="F961" s="3"/>
-      <c r="G961" s="11"/>
+      <c r="G961" s="12"/>
       <c r="H961" s="3"/>
       <c r="I961" s="3"/>
       <c r="J961" s="3"/>
@@ -32185,7 +32195,7 @@
       <c r="D962" s="3"/>
       <c r="E962" s="3"/>
       <c r="F962" s="3"/>
-      <c r="G962" s="11"/>
+      <c r="G962" s="12"/>
       <c r="H962" s="3"/>
       <c r="I962" s="3"/>
       <c r="J962" s="3"/>
@@ -32213,7 +32223,7 @@
       <c r="D963" s="3"/>
       <c r="E963" s="3"/>
       <c r="F963" s="3"/>
-      <c r="G963" s="11"/>
+      <c r="G963" s="12"/>
       <c r="H963" s="3"/>
       <c r="I963" s="3"/>
       <c r="J963" s="3"/>
@@ -32241,7 +32251,7 @@
       <c r="D964" s="3"/>
       <c r="E964" s="3"/>
       <c r="F964" s="3"/>
-      <c r="G964" s="11"/>
+      <c r="G964" s="12"/>
       <c r="H964" s="3"/>
       <c r="I964" s="3"/>
       <c r="J964" s="3"/>
@@ -32269,7 +32279,7 @@
       <c r="D965" s="3"/>
       <c r="E965" s="3"/>
       <c r="F965" s="3"/>
-      <c r="G965" s="11"/>
+      <c r="G965" s="12"/>
       <c r="H965" s="3"/>
       <c r="I965" s="3"/>
       <c r="J965" s="3"/>
@@ -32297,7 +32307,7 @@
       <c r="D966" s="3"/>
       <c r="E966" s="3"/>
       <c r="F966" s="3"/>
-      <c r="G966" s="11"/>
+      <c r="G966" s="12"/>
       <c r="H966" s="3"/>
       <c r="I966" s="3"/>
       <c r="J966" s="3"/>
@@ -32325,7 +32335,7 @@
       <c r="D967" s="3"/>
       <c r="E967" s="3"/>
       <c r="F967" s="3"/>
-      <c r="G967" s="11"/>
+      <c r="G967" s="12"/>
       <c r="H967" s="3"/>
       <c r="I967" s="3"/>
       <c r="J967" s="3"/>
@@ -32353,7 +32363,7 @@
       <c r="D968" s="3"/>
       <c r="E968" s="3"/>
       <c r="F968" s="3"/>
-      <c r="G968" s="11"/>
+      <c r="G968" s="12"/>
       <c r="H968" s="3"/>
       <c r="I968" s="3"/>
       <c r="J968" s="3"/>
@@ -32381,7 +32391,7 @@
       <c r="D969" s="3"/>
       <c r="E969" s="3"/>
       <c r="F969" s="3"/>
-      <c r="G969" s="11"/>
+      <c r="G969" s="12"/>
       <c r="H969" s="3"/>
       <c r="I969" s="3"/>
       <c r="J969" s="3"/>
@@ -32409,7 +32419,7 @@
       <c r="D970" s="3"/>
       <c r="E970" s="3"/>
       <c r="F970" s="3"/>
-      <c r="G970" s="11"/>
+      <c r="G970" s="12"/>
       <c r="H970" s="3"/>
       <c r="I970" s="3"/>
       <c r="J970" s="3"/>
@@ -32437,7 +32447,7 @@
       <c r="D971" s="3"/>
       <c r="E971" s="3"/>
       <c r="F971" s="3"/>
-      <c r="G971" s="11"/>
+      <c r="G971" s="12"/>
       <c r="H971" s="3"/>
       <c r="I971" s="3"/>
       <c r="J971" s="3"/>
@@ -32465,7 +32475,7 @@
       <c r="D972" s="3"/>
       <c r="E972" s="3"/>
       <c r="F972" s="3"/>
-      <c r="G972" s="11"/>
+      <c r="G972" s="12"/>
       <c r="H972" s="3"/>
       <c r="I972" s="3"/>
       <c r="J972" s="3"/>
@@ -32493,7 +32503,7 @@
       <c r="D973" s="3"/>
       <c r="E973" s="3"/>
       <c r="F973" s="3"/>
-      <c r="G973" s="11"/>
+      <c r="G973" s="12"/>
       <c r="H973" s="3"/>
       <c r="I973" s="3"/>
       <c r="J973" s="3"/>
@@ -32521,7 +32531,7 @@
       <c r="D974" s="3"/>
       <c r="E974" s="3"/>
       <c r="F974" s="3"/>
-      <c r="G974" s="11"/>
+      <c r="G974" s="12"/>
       <c r="H974" s="3"/>
       <c r="I974" s="3"/>
       <c r="J974" s="3"/>
@@ -32549,7 +32559,7 @@
       <c r="D975" s="3"/>
       <c r="E975" s="3"/>
       <c r="F975" s="3"/>
-      <c r="G975" s="11"/>
+      <c r="G975" s="12"/>
       <c r="H975" s="3"/>
       <c r="I975" s="3"/>
       <c r="J975" s="3"/>
@@ -32577,7 +32587,7 @@
       <c r="D976" s="3"/>
       <c r="E976" s="3"/>
       <c r="F976" s="3"/>
-      <c r="G976" s="11"/>
+      <c r="G976" s="12"/>
       <c r="H976" s="3"/>
       <c r="I976" s="3"/>
       <c r="J976" s="3"/>
@@ -32605,7 +32615,7 @@
       <c r="D977" s="3"/>
       <c r="E977" s="3"/>
       <c r="F977" s="3"/>
-      <c r="G977" s="11"/>
+      <c r="G977" s="12"/>
       <c r="H977" s="3"/>
       <c r="I977" s="3"/>
       <c r="J977" s="3"/>
@@ -32633,7 +32643,7 @@
       <c r="D978" s="3"/>
       <c r="E978" s="3"/>
       <c r="F978" s="3"/>
-      <c r="G978" s="11"/>
+      <c r="G978" s="12"/>
       <c r="H978" s="3"/>
       <c r="I978" s="3"/>
       <c r="J978" s="3"/>
@@ -32661,7 +32671,7 @@
       <c r="D979" s="3"/>
       <c r="E979" s="3"/>
       <c r="F979" s="3"/>
-      <c r="G979" s="11"/>
+      <c r="G979" s="12"/>
       <c r="H979" s="3"/>
       <c r="I979" s="3"/>
       <c r="J979" s="3"/>
@@ -32689,7 +32699,7 @@
       <c r="D980" s="3"/>
       <c r="E980" s="3"/>
       <c r="F980" s="3"/>
-      <c r="G980" s="11"/>
+      <c r="G980" s="12"/>
       <c r="H980" s="3"/>
       <c r="I980" s="3"/>
       <c r="J980" s="3"/>
@@ -32717,7 +32727,7 @@
       <c r="D981" s="3"/>
       <c r="E981" s="3"/>
       <c r="F981" s="3"/>
-      <c r="G981" s="11"/>
+      <c r="G981" s="12"/>
       <c r="H981" s="3"/>
       <c r="I981" s="3"/>
       <c r="J981" s="3"/>
@@ -32745,7 +32755,7 @@
       <c r="D982" s="3"/>
       <c r="E982" s="3"/>
       <c r="F982" s="3"/>
-      <c r="G982" s="11"/>
+      <c r="G982" s="12"/>
       <c r="H982" s="3"/>
       <c r="I982" s="3"/>
       <c r="J982" s="3"/>
@@ -32773,7 +32783,7 @@
       <c r="D983" s="3"/>
       <c r="E983" s="3"/>
       <c r="F983" s="3"/>
-      <c r="G983" s="11"/>
+      <c r="G983" s="12"/>
       <c r="H983" s="3"/>
       <c r="I983" s="3"/>
       <c r="J983" s="3"/>
@@ -32801,7 +32811,7 @@
       <c r="D984" s="3"/>
       <c r="E984" s="3"/>
       <c r="F984" s="3"/>
-      <c r="G984" s="11"/>
+      <c r="G984" s="12"/>
       <c r="H984" s="3"/>
       <c r="I984" s="3"/>
       <c r="J984" s="3"/>
@@ -32829,7 +32839,7 @@
       <c r="D985" s="3"/>
       <c r="E985" s="3"/>
       <c r="F985" s="3"/>
-      <c r="G985" s="11"/>
+      <c r="G985" s="12"/>
       <c r="H985" s="3"/>
       <c r="I985" s="3"/>
       <c r="J985" s="3"/>
@@ -32857,7 +32867,7 @@
       <c r="D986" s="3"/>
       <c r="E986" s="3"/>
       <c r="F986" s="3"/>
-      <c r="G986" s="11"/>
+      <c r="G986" s="12"/>
       <c r="H986" s="3"/>
       <c r="I986" s="3"/>
       <c r="J986" s="3"/>
@@ -32885,7 +32895,7 @@
       <c r="D987" s="3"/>
       <c r="E987" s="3"/>
       <c r="F987" s="3"/>
-      <c r="G987" s="11"/>
+      <c r="G987" s="12"/>
       <c r="H987" s="3"/>
       <c r="I987" s="3"/>
       <c r="J987" s="3"/>
@@ -32913,7 +32923,7 @@
       <c r="D988" s="3"/>
       <c r="E988" s="3"/>
       <c r="F988" s="3"/>
-      <c r="G988" s="11"/>
+      <c r="G988" s="12"/>
       <c r="H988" s="3"/>
       <c r="I988" s="3"/>
       <c r="J988" s="3"/>
@@ -32941,7 +32951,7 @@
       <c r="D989" s="3"/>
       <c r="E989" s="3"/>
       <c r="F989" s="3"/>
-      <c r="G989" s="11"/>
+      <c r="G989" s="12"/>
       <c r="H989" s="3"/>
       <c r="I989" s="3"/>
       <c r="J989" s="3"/>
@@ -32969,7 +32979,7 @@
       <c r="D990" s="3"/>
       <c r="E990" s="3"/>
       <c r="F990" s="3"/>
-      <c r="G990" s="11"/>
+      <c r="G990" s="12"/>
       <c r="H990" s="3"/>
       <c r="I990" s="3"/>
       <c r="J990" s="3"/>
@@ -32997,7 +33007,7 @@
       <c r="D991" s="3"/>
       <c r="E991" s="3"/>
       <c r="F991" s="3"/>
-      <c r="G991" s="11"/>
+      <c r="G991" s="12"/>
       <c r="H991" s="3"/>
       <c r="I991" s="3"/>
       <c r="J991" s="3"/>
@@ -33025,7 +33035,7 @@
       <c r="D992" s="3"/>
       <c r="E992" s="3"/>
       <c r="F992" s="3"/>
-      <c r="G992" s="11"/>
+      <c r="G992" s="12"/>
       <c r="H992" s="3"/>
       <c r="I992" s="3"/>
       <c r="J992" s="3"/>
@@ -33053,7 +33063,7 @@
       <c r="D993" s="3"/>
       <c r="E993" s="3"/>
       <c r="F993" s="3"/>
-      <c r="G993" s="11"/>
+      <c r="G993" s="12"/>
       <c r="H993" s="3"/>
       <c r="I993" s="3"/>
       <c r="J993" s="3"/>
@@ -33081,7 +33091,7 @@
       <c r="D994" s="3"/>
       <c r="E994" s="3"/>
       <c r="F994" s="3"/>
-      <c r="G994" s="11"/>
+      <c r="G994" s="12"/>
       <c r="H994" s="3"/>
       <c r="I994" s="3"/>
       <c r="J994" s="3"/>
@@ -33109,7 +33119,7 @@
       <c r="D995" s="3"/>
       <c r="E995" s="3"/>
       <c r="F995" s="3"/>
-      <c r="G995" s="11"/>
+      <c r="G995" s="12"/>
       <c r="H995" s="3"/>
       <c r="I995" s="3"/>
       <c r="J995" s="3"/>
@@ -33137,7 +33147,7 @@
       <c r="D996" s="3"/>
       <c r="E996" s="3"/>
       <c r="F996" s="3"/>
-      <c r="G996" s="11"/>
+      <c r="G996" s="12"/>
       <c r="H996" s="3"/>
       <c r="I996" s="3"/>
       <c r="J996" s="3"/>
@@ -33165,7 +33175,7 @@
       <c r="D997" s="3"/>
       <c r="E997" s="3"/>
       <c r="F997" s="3"/>
-      <c r="G997" s="11"/>
+      <c r="G997" s="12"/>
       <c r="H997" s="3"/>
       <c r="I997" s="3"/>
       <c r="J997" s="3"/>
@@ -33193,7 +33203,7 @@
       <c r="D998" s="3"/>
       <c r="E998" s="3"/>
       <c r="F998" s="3"/>
-      <c r="G998" s="11"/>
+      <c r="G998" s="12"/>
       <c r="H998" s="3"/>
       <c r="I998" s="3"/>
       <c r="J998" s="3"/>
@@ -33221,7 +33231,7 @@
       <c r="D999" s="3"/>
       <c r="E999" s="3"/>
       <c r="F999" s="3"/>
-      <c r="G999" s="11"/>
+      <c r="G999" s="12"/>
       <c r="H999" s="3"/>
       <c r="I999" s="3"/>
       <c r="J999" s="3"/>
@@ -33249,7 +33259,7 @@
       <c r="D1000" s="3"/>
       <c r="E1000" s="3"/>
       <c r="F1000" s="3"/>
-      <c r="G1000" s="11"/>
+      <c r="G1000" s="12"/>
       <c r="H1000" s="3"/>
       <c r="I1000" s="3"/>
       <c r="J1000" s="3"/>
